--- a/Soccer/Features Without GKHandling/soccer_NN_test_set_prediction_results.xlsx
+++ b/Soccer/Features Without GKHandling/soccer_NN_test_set_prediction_results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Data Science\Deconstructing Neural Networks\Soccer\Features Without GKHandling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230C5518-7C3B-48F8-8A38-F03230A29C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD26ACF-F06A-4B86-9748-8CEA105D3037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="180" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NN_test_set_prediction_results1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NN_test_set_prediction_results1!$A$1:$S$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NN_test_set_prediction_results1!$A$1:$S$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="49">
   <si>
     <t>all features</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Min Correlation</t>
+  </si>
+  <si>
+    <t>Min correlation</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +529,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -702,7 +711,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -725,6 +734,11 @@
     <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -868,10 +882,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>NN_test_set_prediction_results1!$N$2:$N$107</c:f>
+              <c:f>NN_test_set_prediction_results1!$N$2:$N$106</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>-0.25067011704449099</c:v>
                 </c:pt>
@@ -1008,7 +1022,7 @@
                   <c:v>-3.0824181979061801E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>3.8244248103491703E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.8244248103491703E-2</c:v>
@@ -1044,7 +1058,7 @@
                   <c:v>3.8244248103491703E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.8244248103491703E-2</c:v>
+                  <c:v>4.3752962356644602E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>4.3752962356644602E-2</c:v>
@@ -1071,7 +1085,7 @@
                   <c:v>4.3752962356644602E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.3752962356644602E-2</c:v>
+                  <c:v>8.7446074907201604E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>8.7446074907201604E-2</c:v>
@@ -1098,7 +1112,7 @@
                   <c:v>8.7446074907201604E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.7446074907201604E-2</c:v>
+                  <c:v>9.3180979554665297E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>9.3180979554665297E-2</c:v>
@@ -1125,7 +1139,7 @@
                   <c:v>9.3180979554665297E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.3180979554665297E-2</c:v>
+                  <c:v>0.10910851245905299</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.10910851245905299</c:v>
@@ -1143,7 +1157,7 @@
                   <c:v>0.10910851245905299</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.10910851245905299</c:v>
+                  <c:v>0.115973471956945</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.115973471956945</c:v>
@@ -1152,7 +1166,7 @@
                   <c:v>0.115973471956945</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.115973471956945</c:v>
+                  <c:v>0.11710808008718999</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0.11710808008718999</c:v>
@@ -1170,7 +1184,7 @@
                   <c:v>0.11710808008718999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.11710808008718999</c:v>
+                  <c:v>0.11833176042660901</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.11833176042660901</c:v>
@@ -1185,9 +1199,6 @@
                   <c:v>0.11833176042660901</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.11833176042660901</c:v>
-                </c:pt>
-                <c:pt idx="105">
                   <c:v>0.11833176042660901</c:v>
                 </c:pt>
               </c:numCache>
@@ -1195,10 +1206,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NN_test_set_prediction_results1!$R$2:$R$107</c:f>
+              <c:f>NN_test_set_prediction_results1!$R$2:$R$106</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>2.253579596336926E-2</c:v>
                 </c:pt>
@@ -1335,186 +1346,183 @@
                   <c:v>5.4668518319725981E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0902419924736003E-2</c:v>
+                  <c:v>2.8243160679936364E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.8243160679936364E-2</c:v>
+                  <c:v>2.8521997794508903E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.8521997794508903E-2</c:v>
+                  <c:v>2.9847828224301282E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.9847828224301282E-2</c:v>
+                  <c:v>3.1474897280335382E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.1474897280335382E-2</c:v>
+                  <c:v>3.3685918077826463E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.3685918077826463E-2</c:v>
+                  <c:v>3.6083592087030235E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.6083592087030235E-2</c:v>
+                  <c:v>3.6182908505201283E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.6182908505201283E-2</c:v>
+                  <c:v>4.2932242199778502E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.2932242199778502E-2</c:v>
+                  <c:v>4.4355207741260505E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.4355207741260505E-2</c:v>
+                  <c:v>5.1192409962415641E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.1192409962415641E-2</c:v>
+                  <c:v>6.3248873531818239E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.3248873531818239E-2</c:v>
+                  <c:v>7.4237615898251369E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.4237615898251369E-2</c:v>
+                  <c:v>3.279444320499892E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.279444320499892E-2</c:v>
+                  <c:v>3.4029765143990476E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.4029765143990476E-2</c:v>
+                  <c:v>3.4369612634181923E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.4369612634181923E-2</c:v>
+                  <c:v>3.4902984373271398E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.4902984373271398E-2</c:v>
+                  <c:v>3.5359289493411737E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.5359289493411737E-2</c:v>
+                  <c:v>3.9225618869066198E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.9225618869066198E-2</c:v>
+                  <c:v>4.366611016541716E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.366611016541716E-2</c:v>
+                  <c:v>4.6928751707076985E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.6928751707076985E-2</c:v>
+                  <c:v>8.1526146873831445E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.1526146873831445E-2</c:v>
+                  <c:v>3.1015813685953582E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.1015813685953582E-2</c:v>
+                  <c:v>3.12133910655975E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.12133910655975E-2</c:v>
+                  <c:v>3.2105709850788061E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.2105709850788061E-2</c:v>
+                  <c:v>3.5806296467780996E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.5806296467780996E-2</c:v>
+                  <c:v>3.8771420791745156E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.8771420791745156E-2</c:v>
+                  <c:v>3.9339323684573095E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.9339323684573095E-2</c:v>
+                  <c:v>4.8585761874914118E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.8585761874914118E-2</c:v>
+                  <c:v>5.5154372856020796E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.5154372856020796E-2</c:v>
+                  <c:v>5.5620646595954781E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.5620646595954781E-2</c:v>
+                  <c:v>2.8973621711134861E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.8973621711134861E-2</c:v>
+                  <c:v>3.0583212122321062E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.0583212122321062E-2</c:v>
+                  <c:v>3.178442940115922E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.178442940115922E-2</c:v>
+                  <c:v>3.9417579591274197E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.9417579591274197E-2</c:v>
+                  <c:v>4.0320910587906725E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.0320910587906725E-2</c:v>
+                  <c:v>4.2126142755150642E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.2126142755150642E-2</c:v>
+                  <c:v>4.2626983389258341E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.2626983389258341E-2</c:v>
+                  <c:v>4.9241443216800622E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.9241443216800622E-2</c:v>
+                  <c:v>6.6089189037680421E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.6089189037680421E-2</c:v>
+                  <c:v>2.6051706582307783E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.6051706582307783E-2</c:v>
+                  <c:v>3.2123035416007001E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.2123035416007001E-2</c:v>
+                  <c:v>3.5628567084670021E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.5628567084670021E-2</c:v>
+                  <c:v>4.0394678652286478E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.0394678652286478E-2</c:v>
+                  <c:v>4.913840238749978E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.913840238749978E-2</c:v>
+                  <c:v>5.4670435696840138E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.4670435696840138E-2</c:v>
+                  <c:v>3.0656662300229016E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.0656662300229016E-2</c:v>
+                  <c:v>3.6410860568284943E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.6410860568284943E-2</c:v>
+                  <c:v>6.5113776862621126E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.5113776862621126E-2</c:v>
+                  <c:v>2.5746355086564983E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.5746355086564983E-2</c:v>
+                  <c:v>2.9429251208901358E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.9429251208901358E-2</c:v>
+                  <c:v>3.0665996700525239E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.0665996700525239E-2</c:v>
+                  <c:v>3.4967337355017634E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.4967337355017634E-2</c:v>
+                  <c:v>3.8995066776871659E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.8995066776871659E-2</c:v>
+                  <c:v>4.3425965398550002E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.3425965398550002E-2</c:v>
+                  <c:v>2.673669317364688E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.673669317364688E-2</c:v>
+                  <c:v>3.1273457452654821E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.1273457452654821E-2</c:v>
+                  <c:v>3.6690904840826918E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.6690904840826918E-2</c:v>
+                  <c:v>3.7692924208939022E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.7692924208939022E-2</c:v>
+                  <c:v>4.4421142846345837E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.4421142846345837E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
                   <c:v>4.51604081988334E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1590,23 +1598,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1698,23 +1689,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-IL"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1817,611 +1791,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2746,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S107"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,9 +2143,11 @@
     <col min="5" max="13" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="14" max="18" width="10.77734375" customWidth="1"/>
     <col min="19" max="19" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -2820,8 +2205,14 @@
       <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2885,8 +2276,16 @@
         <f t="shared" ref="S2:S33" si="5">(SUM(E2:I2)-MIN(E2:I2)-MAX(E2:I2))/3</f>
         <v>2.0040715682941131E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U2" s="8">
+        <f>CORREL(N2:N106,R2:R106)</f>
+        <v>0.31814637162585402</v>
+      </c>
+      <c r="V2" s="10">
+        <f>CORREL(O2:O106,R2:R106)</f>
+        <v>-0.18196160068293069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -2951,7 +2350,7 @@
         <v>2.3871286325156633E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -3016,7 +2415,7 @@
         <v>2.5424522260824797E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -3081,7 +2480,7 @@
         <v>2.5009559790293335E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -3146,7 +2545,7 @@
         <v>2.60379459460576E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3211,7 +2610,7 @@
         <v>2.1645446568727467E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -3276,7 +2675,7 @@
         <v>2.6843052133917761E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3341,7 +2740,7 @@
         <v>2.8666130180160124E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -3406,7 +2805,7 @@
         <v>2.5347217023372604E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -3471,7 +2870,7 @@
         <v>2.8991040041049271E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -3536,7 +2935,7 @@
         <v>3.2871360580126407E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -3601,7 +3000,7 @@
         <v>3.1778510262568761E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -3666,7 +3065,7 @@
         <v>2.7536776910225495E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3731,7 +3130,7 @@
         <v>2.3114045560359928E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -4942,27 +4341,27 @@
         <v>0.63060801230386099</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" ref="N34:N65" si="6">MIN(J34:M34)</f>
+        <f t="shared" ref="N34:N64" si="6">MIN(J34:M34)</f>
         <v>-3.0824181979061801E-3</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" ref="O34:O65" si="7">SUM(J34:M34)</f>
+        <f t="shared" ref="O34:O64" si="7">SUM(J34:M34)</f>
         <v>1.9000651103419446</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" ref="P34:P65" si="8">ABS(J34)+ABS(K34)+ABS(L34)+ABS(M34)</f>
+        <f t="shared" ref="P34:P64" si="8">ABS(J34)+ABS(K34)+ABS(L34)+ABS(M34)</f>
         <v>1.9062299467377573</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" ref="Q34:Q65" si="9">MIN(E34:I34)</f>
+        <f t="shared" ref="Q34:Q64" si="9">MIN(E34:I34)</f>
         <v>1.5081786662340099E-2</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" ref="R34:R65" si="10">AVERAGE(E34:I34)</f>
+        <f t="shared" ref="R34:R64" si="10">AVERAGE(E34:I34)</f>
         <v>3.4015383094549115E-2</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" ref="S34:S65" si="11">(SUM(E34:I34)-MIN(E34:I34)-MAX(E34:I34))/3</f>
+        <f t="shared" ref="S34:S64" si="11">(SUM(E34:I34)-MIN(E34:I34)-MAX(E34:I34))/3</f>
         <v>3.3143660724162999E-2</v>
       </c>
     </row>
@@ -5747,109 +5146,109 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>0</v>
+      <c r="A47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="4">
-        <v>4.1218972355127302E-2</v>
+        <v>3.21474421024322E-2</v>
       </c>
       <c r="F47" s="4">
-        <v>1.2335145175457E-2</v>
+        <v>3.2049139440059597E-2</v>
       </c>
       <c r="G47" s="4">
-        <v>2.55837010592222E-2</v>
+        <v>4.3514083176851202E-2</v>
       </c>
       <c r="H47" s="4">
-        <v>3.0144933685660302E-2</v>
+        <v>1.56450660526752E-2</v>
       </c>
       <c r="I47" s="4">
-        <v>4.5229347348213197E-2</v>
+        <v>1.7860072627663599E-2</v>
       </c>
       <c r="J47" s="4">
-        <v>0</v>
+        <v>0.211239010925698</v>
       </c>
       <c r="K47" s="4">
-        <v>0</v>
+        <v>3.8244248103491703E-2</v>
       </c>
       <c r="L47" s="4">
-        <v>0</v>
+        <v>8.7446074907201604E-2</v>
       </c>
       <c r="M47" s="4">
-        <v>0</v>
+        <v>0.77480318868283204</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.8244248103491703E-2</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.1117325226192234</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.1117325226192234</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="9"/>
-        <v>1.2335145175457E-2</v>
+        <v>1.56450660526752E-2</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="10"/>
-        <v>3.0902419924736003E-2</v>
+        <v>2.8243160679936364E-2</v>
       </c>
       <c r="S47" s="2">
         <f t="shared" si="11"/>
-        <v>3.2315869033336601E-2</v>
+        <v>2.7352218056718464E-2</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E48" s="4">
-        <v>3.21474421024322E-2</v>
+        <v>3.8533481806516598E-2</v>
       </c>
       <c r="F48" s="4">
-        <v>3.2049139440059597E-2</v>
+        <v>2.2061558067798599E-2</v>
       </c>
       <c r="G48" s="4">
-        <v>4.3514083176851202E-2</v>
+        <v>1.9730200171470601E-2</v>
       </c>
       <c r="H48" s="4">
-        <v>1.56450660526752E-2</v>
+        <v>1.8884073272347399E-2</v>
       </c>
       <c r="I48" s="4">
-        <v>1.7860072627663599E-2</v>
+        <v>4.3400675654411303E-2</v>
       </c>
       <c r="J48" s="4">
-        <v>0.211239010925698</v>
+        <v>0.45661885009589398</v>
       </c>
       <c r="K48" s="4">
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L48" s="4">
-        <v>8.7446074907201604E-2</v>
+        <v>0.61213057637116297</v>
       </c>
       <c r="M48" s="4">
-        <v>0.77480318868283204</v>
+        <v>0.63060801230386099</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="6"/>
@@ -5857,61 +5256,61 @@
       </c>
       <c r="O48" s="2">
         <f t="shared" si="7"/>
-        <v>1.1117325226192234</v>
+        <v>1.7376016868744095</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="8"/>
-        <v>1.1117325226192234</v>
+        <v>1.7376016868744095</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="9"/>
-        <v>1.56450660526752E-2</v>
+        <v>1.8884073272347399E-2</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="10"/>
-        <v>2.8243160679936364E-2</v>
+        <v>2.8521997794508903E-2</v>
       </c>
       <c r="S48" s="2">
         <f t="shared" si="11"/>
-        <v>2.7352218056718464E-2</v>
+        <v>2.6775080015261937E-2</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="4">
-        <v>3.8533481806516598E-2</v>
+        <v>3.9552846997976301E-2</v>
       </c>
       <c r="F49" s="4">
-        <v>2.2061558067798599E-2</v>
+        <v>3.5723155736923203E-2</v>
       </c>
       <c r="G49" s="4">
-        <v>1.9730200171470601E-2</v>
+        <v>2.5545295923948198E-2</v>
       </c>
       <c r="H49" s="4">
-        <v>1.8884073272347399E-2</v>
+        <v>3.2010892331600101E-2</v>
       </c>
       <c r="I49" s="4">
-        <v>4.3400675654411303E-2</v>
+        <v>1.6406950131058601E-2</v>
       </c>
       <c r="J49" s="4">
-        <v>0.45661885009589398</v>
+        <v>0.40452430961547398</v>
       </c>
       <c r="K49" s="4">
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L49" s="4">
-        <v>0.61213057637116297</v>
+        <v>0.15429914841435599</v>
       </c>
       <c r="M49" s="4">
         <v>0.63060801230386099</v>
@@ -5922,64 +5321,64 @@
       </c>
       <c r="O49" s="2">
         <f t="shared" si="7"/>
-        <v>1.7376016868744095</v>
+        <v>1.2276757184371827</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="8"/>
-        <v>1.7376016868744095</v>
+        <v>1.2276757184371827</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="9"/>
-        <v>1.8884073272347399E-2</v>
+        <v>1.6406950131058601E-2</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="10"/>
-        <v>2.8521997794508903E-2</v>
+        <v>2.9847828224301282E-2</v>
       </c>
       <c r="S49" s="2">
         <f t="shared" si="11"/>
-        <v>2.6775080015261937E-2</v>
+        <v>3.1093114664157165E-2</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" s="4">
-        <v>3.9552846997976301E-2</v>
+        <v>3.9261592328548402E-2</v>
       </c>
       <c r="F50" s="4">
-        <v>3.5723155736923203E-2</v>
+        <v>3.6539309918880401E-2</v>
       </c>
       <c r="G50" s="4">
-        <v>2.5545295923948198E-2</v>
+        <v>1.42799104005098E-2</v>
       </c>
       <c r="H50" s="4">
-        <v>3.2010892331600101E-2</v>
+        <v>3.00103202462196E-2</v>
       </c>
       <c r="I50" s="4">
-        <v>1.6406950131058601E-2</v>
+        <v>3.7283353507518699E-2</v>
       </c>
       <c r="J50" s="4">
-        <v>0.40452430961547398</v>
+        <v>0.211239010925698</v>
       </c>
       <c r="K50" s="4">
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L50" s="4">
-        <v>0.15429914841435599</v>
+        <v>0.115973471956945</v>
       </c>
       <c r="M50" s="4">
-        <v>0.63060801230386099</v>
+        <v>0.61213057637116297</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="6"/>
@@ -5987,64 +5386,64 @@
       </c>
       <c r="O50" s="2">
         <f t="shared" si="7"/>
-        <v>1.2276757184371827</v>
+        <v>0.9775873073572976</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="8"/>
-        <v>1.2276757184371827</v>
+        <v>0.9775873073572976</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="9"/>
-        <v>1.6406950131058601E-2</v>
+        <v>1.42799104005098E-2</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="10"/>
-        <v>2.9847828224301282E-2</v>
+        <v>3.1474897280335382E-2</v>
       </c>
       <c r="S50" s="2">
         <f t="shared" si="11"/>
-        <v>3.1093114664157165E-2</v>
+        <v>3.4610994557539569E-2</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E51" s="4">
-        <v>3.9261592328548402E-2</v>
+        <v>2.7049082964658699E-2</v>
       </c>
       <c r="F51" s="4">
-        <v>3.6539309918880401E-2</v>
+        <v>6.3070017397403699E-2</v>
       </c>
       <c r="G51" s="4">
-        <v>1.42799104005098E-2</v>
+        <v>2.34228448569774E-2</v>
       </c>
       <c r="H51" s="4">
-        <v>3.00103202462196E-2</v>
+        <v>3.3951831758022299E-2</v>
       </c>
       <c r="I51" s="4">
-        <v>3.7283353507518699E-2</v>
+        <v>2.0935813412070198E-2</v>
       </c>
       <c r="J51" s="4">
-        <v>0.211239010925698</v>
+        <v>0.45661885009589398</v>
       </c>
       <c r="K51" s="4">
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L51" s="4">
-        <v>0.115973471956945</v>
+        <v>0.69774607612664197</v>
       </c>
       <c r="M51" s="4">
-        <v>0.61213057637116297</v>
+        <v>0.77480318868283204</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="6"/>
@@ -6052,23 +5451,23 @@
       </c>
       <c r="O51" s="2">
         <f t="shared" si="7"/>
-        <v>0.9775873073572976</v>
+        <v>1.9674123630088598</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="8"/>
-        <v>0.9775873073572976</v>
+        <v>1.9674123630088598</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="9"/>
-        <v>1.42799104005098E-2</v>
+        <v>2.0935813412070198E-2</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="10"/>
-        <v>3.1474897280335382E-2</v>
+        <v>3.3685918077826463E-2</v>
       </c>
       <c r="S51" s="2">
         <f t="shared" si="11"/>
-        <v>3.4610994557539569E-2</v>
+        <v>2.8141253193219473E-2</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -6079,25 +5478,25 @@
         <v>18</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E52" s="4">
-        <v>2.7049082964658699E-2</v>
+        <v>1.7753817215561799E-2</v>
       </c>
       <c r="F52" s="4">
-        <v>6.3070017397403699E-2</v>
+        <v>1.36457891762256E-2</v>
       </c>
       <c r="G52" s="4">
-        <v>2.34228448569774E-2</v>
+        <v>0.10799928843975</v>
       </c>
       <c r="H52" s="4">
-        <v>3.3951831758022299E-2</v>
+        <v>1.2274482473731E-2</v>
       </c>
       <c r="I52" s="4">
-        <v>2.0935813412070198E-2</v>
+        <v>2.87445831298828E-2</v>
       </c>
       <c r="J52" s="4">
         <v>0.45661885009589398</v>
@@ -6106,10 +5505,10 @@
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L52" s="4">
-        <v>0.69774607612664197</v>
+        <v>0.93959082397753502</v>
       </c>
       <c r="M52" s="4">
-        <v>0.77480318868283204</v>
+        <v>0.36249339926180402</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="6"/>
@@ -6117,64 +5516,64 @@
       </c>
       <c r="O52" s="2">
         <f t="shared" si="7"/>
-        <v>1.9674123630088598</v>
+        <v>1.7969473214387246</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="8"/>
-        <v>1.9674123630088598</v>
+        <v>1.7969473214387246</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="9"/>
-        <v>2.0935813412070198E-2</v>
+        <v>1.2274482473731E-2</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="10"/>
-        <v>3.3685918077826463E-2</v>
+        <v>3.6083592087030235E-2</v>
       </c>
       <c r="S52" s="2">
         <f t="shared" si="11"/>
-        <v>2.8141253193219473E-2</v>
+        <v>2.004806317389006E-2</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E53" s="4">
-        <v>1.7753817215561799E-2</v>
+        <v>3.6245716959237999E-2</v>
       </c>
       <c r="F53" s="4">
-        <v>1.36457891762256E-2</v>
+        <v>3.6132552623748697E-2</v>
       </c>
       <c r="G53" s="4">
-        <v>0.10799928843975</v>
+        <v>2.9503816664218901E-2</v>
       </c>
       <c r="H53" s="4">
-        <v>1.2274482473731E-2</v>
+        <v>3.68700745701789E-2</v>
       </c>
       <c r="I53" s="4">
-        <v>2.87445831298828E-2</v>
+        <v>4.2162381708621903E-2</v>
       </c>
       <c r="J53" s="4">
-        <v>0.45661885009589398</v>
+        <v>0.211239010925698</v>
       </c>
       <c r="K53" s="4">
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L53" s="4">
+        <v>0.15429914841435599</v>
+      </c>
+      <c r="M53" s="4">
         <v>0.93959082397753502</v>
-      </c>
-      <c r="M53" s="4">
-        <v>0.36249339926180402</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="6"/>
@@ -6182,64 +5581,64 @@
       </c>
       <c r="O53" s="2">
         <f t="shared" si="7"/>
-        <v>1.7969473214387246</v>
+        <v>1.3433732314210807</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="8"/>
-        <v>1.7969473214387246</v>
+        <v>1.3433732314210807</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="9"/>
-        <v>1.2274482473731E-2</v>
+        <v>2.9503816664218901E-2</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="10"/>
-        <v>3.6083592087030235E-2</v>
+        <v>3.6182908505201283E-2</v>
       </c>
       <c r="S53" s="2">
         <f t="shared" si="11"/>
-        <v>2.004806317389006E-2</v>
+        <v>3.6416114717721874E-2</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E54" s="4">
-        <v>3.6245716959237999E-2</v>
+        <v>3.8282990157604203E-2</v>
       </c>
       <c r="F54" s="4">
-        <v>3.6132552623748697E-2</v>
+        <v>4.3983242809772401E-2</v>
       </c>
       <c r="G54" s="4">
-        <v>2.9503816664218901E-2</v>
+        <v>3.6128960475325503E-2</v>
       </c>
       <c r="H54" s="4">
-        <v>3.68700745701789E-2</v>
+        <v>4.0533830225467603E-2</v>
       </c>
       <c r="I54" s="4">
-        <v>4.2162381708621903E-2</v>
+        <v>5.5732187330722799E-2</v>
       </c>
       <c r="J54" s="4">
-        <v>0.211239010925698</v>
+        <v>0.34483845482185699</v>
       </c>
       <c r="K54" s="4">
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L54" s="4">
-        <v>0.15429914841435599</v>
+        <v>0.115973471956945</v>
       </c>
       <c r="M54" s="4">
-        <v>0.93959082397753502</v>
+        <v>0.69774607612664197</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="6"/>
@@ -6247,64 +5646,64 @@
       </c>
       <c r="O54" s="2">
         <f t="shared" si="7"/>
-        <v>1.3433732314210807</v>
+        <v>1.1968022510089358</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="8"/>
-        <v>1.3433732314210807</v>
+        <v>1.1968022510089358</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="9"/>
-        <v>2.9503816664218901E-2</v>
+        <v>3.6128960475325503E-2</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="10"/>
-        <v>3.6182908505201283E-2</v>
+        <v>4.2932242199778502E-2</v>
       </c>
       <c r="S54" s="2">
         <f t="shared" si="11"/>
-        <v>3.6416114717721874E-2</v>
+        <v>4.0933354397614745E-2</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E55" s="4">
-        <v>3.8282990157604203E-2</v>
+        <v>4.4324892759323102E-2</v>
       </c>
       <c r="F55" s="4">
-        <v>4.3983242809772401E-2</v>
+        <v>5.43583607673645E-2</v>
       </c>
       <c r="G55" s="4">
-        <v>3.6128960475325503E-2</v>
+        <v>3.6348882615566201E-2</v>
       </c>
       <c r="H55" s="4">
-        <v>4.0533830225467603E-2</v>
+        <v>4.8820237815380099E-2</v>
       </c>
       <c r="I55" s="4">
-        <v>5.5732187330722799E-2</v>
+        <v>3.7923664748668602E-2</v>
       </c>
       <c r="J55" s="4">
-        <v>0.34483845482185699</v>
+        <v>0.44339170258481098</v>
       </c>
       <c r="K55" s="4">
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L55" s="4">
-        <v>0.115973471956945</v>
+        <v>8.7446074907201604E-2</v>
       </c>
       <c r="M55" s="4">
-        <v>0.69774607612664197</v>
+        <v>0.36249339926180402</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="6"/>
@@ -6312,23 +5711,23 @@
       </c>
       <c r="O55" s="2">
         <f t="shared" si="7"/>
-        <v>1.1968022510089358</v>
+        <v>0.93157542485730827</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="8"/>
-        <v>1.1968022510089358</v>
+        <v>0.93157542485730827</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="9"/>
-        <v>3.6128960475325503E-2</v>
+        <v>3.6348882615566201E-2</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="10"/>
-        <v>4.2932242199778502E-2</v>
+        <v>4.4355207741260505E-2</v>
       </c>
       <c r="S55" s="2">
         <f t="shared" si="11"/>
-        <v>4.0933354397614745E-2</v>
+        <v>4.3689598441123939E-2</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -6339,25 +5738,25 @@
         <v>18</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E56" s="4">
-        <v>4.4324892759323102E-2</v>
+        <v>2.8034672886133101E-2</v>
       </c>
       <c r="F56" s="4">
-        <v>5.43583607673645E-2</v>
+        <v>7.7400003075599605E-2</v>
       </c>
       <c r="G56" s="4">
-        <v>3.6348882615566201E-2</v>
+        <v>6.7798725366592399E-2</v>
       </c>
       <c r="H56" s="4">
-        <v>4.8820237815380099E-2</v>
+        <v>5.1655422747135103E-2</v>
       </c>
       <c r="I56" s="4">
-        <v>3.7923664748668602E-2</v>
+        <v>3.1073225736617999E-2</v>
       </c>
       <c r="J56" s="4">
         <v>0.44339170258481098</v>
@@ -6366,10 +5765,10 @@
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L56" s="4">
-        <v>8.7446074907201604E-2</v>
+        <v>0.15429914841435599</v>
       </c>
       <c r="M56" s="4">
-        <v>0.36249339926180402</v>
+        <v>0.69774607612664197</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="6"/>
@@ -6377,64 +5776,64 @@
       </c>
       <c r="O56" s="2">
         <f t="shared" si="7"/>
-        <v>0.93157542485730827</v>
+        <v>1.3336811752293007</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="8"/>
-        <v>0.93157542485730827</v>
+        <v>1.3336811752293007</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="9"/>
-        <v>3.6348882615566201E-2</v>
+        <v>2.8034672886133101E-2</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="10"/>
-        <v>4.4355207741260505E-2</v>
+        <v>5.1192409962415641E-2</v>
       </c>
       <c r="S56" s="2">
         <f t="shared" si="11"/>
-        <v>4.3689598441123939E-2</v>
+        <v>5.0175791283448505E-2</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" s="4">
-        <v>2.8034672886133101E-2</v>
+        <v>7.3749250769615096E-2</v>
       </c>
       <c r="F57" s="4">
-        <v>7.7400003075599605E-2</v>
+        <v>3.5021480321884103E-2</v>
       </c>
       <c r="G57" s="4">
-        <v>6.7798725366592399E-2</v>
+        <v>0.112480106055736</v>
       </c>
       <c r="H57" s="4">
-        <v>5.1655422747135103E-2</v>
+        <v>5.0172814726829502E-2</v>
       </c>
       <c r="I57" s="4">
-        <v>3.1073225736617999E-2</v>
+        <v>4.4820715785026499E-2</v>
       </c>
       <c r="J57" s="4">
-        <v>0.44339170258481098</v>
+        <v>0.34483845482185699</v>
       </c>
       <c r="K57" s="4">
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L57" s="4">
-        <v>0.15429914841435599</v>
+        <v>8.7446074907201604E-2</v>
       </c>
       <c r="M57" s="4">
-        <v>0.69774607612664197</v>
+        <v>0.63060801230386099</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="6"/>
@@ -6442,64 +5841,64 @@
       </c>
       <c r="O57" s="2">
         <f t="shared" si="7"/>
-        <v>1.3336811752293007</v>
+        <v>1.1011367901364113</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="8"/>
-        <v>1.3336811752293007</v>
+        <v>1.1011367901364113</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="9"/>
-        <v>2.8034672886133101E-2</v>
+        <v>3.5021480321884103E-2</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="10"/>
-        <v>5.1192409962415641E-2</v>
+        <v>6.3248873531818239E-2</v>
       </c>
       <c r="S57" s="2">
         <f t="shared" si="11"/>
-        <v>5.0175791283448505E-2</v>
+        <v>5.6247593760490357E-2</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58" s="4">
-        <v>7.3749250769615096E-2</v>
+        <v>1.5395593419671E-2</v>
       </c>
       <c r="F58" s="4">
-        <v>3.5021480321884103E-2</v>
+        <v>0.17448090255260401</v>
       </c>
       <c r="G58" s="4">
-        <v>0.112480106055736</v>
+        <v>3.9903108179569199E-2</v>
       </c>
       <c r="H58" s="4">
-        <v>5.0172814726829502E-2</v>
+        <v>2.6313786208629598E-2</v>
       </c>
       <c r="I58" s="4">
-        <v>4.4820715785026499E-2</v>
+        <v>0.115094689130783</v>
       </c>
       <c r="J58" s="4">
-        <v>0.34483845482185699</v>
+        <v>0.40452430961547398</v>
       </c>
       <c r="K58" s="4">
         <v>3.8244248103491703E-2</v>
       </c>
       <c r="L58" s="4">
-        <v>8.7446074907201604E-2</v>
+        <v>0.115973471956945</v>
       </c>
       <c r="M58" s="4">
-        <v>0.63060801230386099</v>
+        <v>0.36249339926180402</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="6"/>
@@ -6507,31 +5906,31 @@
       </c>
       <c r="O58" s="2">
         <f t="shared" si="7"/>
-        <v>1.1011367901364113</v>
+        <v>0.92123542893771471</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="8"/>
-        <v>1.1011367901364113</v>
+        <v>0.92123542893771471</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="9"/>
-        <v>3.5021480321884103E-2</v>
+        <v>1.5395593419671E-2</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="10"/>
-        <v>6.3248873531818239E-2</v>
+        <v>7.4237615898251369E-2</v>
       </c>
       <c r="S58" s="2">
         <f t="shared" si="11"/>
-        <v>5.6247593760490357E-2</v>
+        <v>6.0437194506327285E-2</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>13</v>
@@ -6540,25 +5939,25 @@
         <v>4</v>
       </c>
       <c r="E59" s="4">
-        <v>1.5395593419671E-2</v>
+        <v>2.8078542649745901E-2</v>
       </c>
       <c r="F59" s="4">
-        <v>0.17448090255260401</v>
+        <v>3.2662393152713701E-2</v>
       </c>
       <c r="G59" s="4">
-        <v>3.9903108179569199E-2</v>
+        <v>2.3899275884032199E-2</v>
       </c>
       <c r="H59" s="4">
-        <v>2.6313786208629598E-2</v>
+        <v>3.5563694983720702E-2</v>
       </c>
       <c r="I59" s="4">
-        <v>0.115094689130783</v>
+        <v>4.3768309354782098E-2</v>
       </c>
       <c r="J59" s="4">
-        <v>0.40452430961547398</v>
+        <v>4.3752962356644602E-2</v>
       </c>
       <c r="K59" s="4">
-        <v>3.8244248103491703E-2</v>
+        <v>0.28867643090825301</v>
       </c>
       <c r="L59" s="4">
         <v>0.115973471956945</v>
@@ -6568,27 +5967,27 @@
       </c>
       <c r="N59" s="2">
         <f t="shared" si="6"/>
-        <v>3.8244248103491703E-2</v>
+        <v>4.3752962356644602E-2</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="7"/>
-        <v>0.92123542893771471</v>
+        <v>0.8108962644836466</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="8"/>
-        <v>0.92123542893771471</v>
+        <v>0.8108962644836466</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="9"/>
-        <v>1.5395593419671E-2</v>
+        <v>2.3899275884032199E-2</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="10"/>
-        <v>7.4237615898251369E-2</v>
+        <v>3.279444320499892E-2</v>
       </c>
       <c r="S59" s="2">
         <f t="shared" si="11"/>
-        <v>6.0437194506327285E-2</v>
+        <v>3.2101543595393432E-2</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -6596,37 +5995,37 @@
         <v>23</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="4">
-        <v>2.8078542649745901E-2</v>
+        <v>2.77436681836843E-2</v>
       </c>
       <c r="F60" s="4">
-        <v>3.2662393152713701E-2</v>
+        <v>3.3120738118886897E-2</v>
       </c>
       <c r="G60" s="4">
-        <v>2.3899275884032199E-2</v>
+        <v>4.3783781826496102E-2</v>
       </c>
       <c r="H60" s="4">
-        <v>3.5563694983720702E-2</v>
+        <v>3.7503349184989897E-2</v>
       </c>
       <c r="I60" s="4">
-        <v>4.3768309354782098E-2</v>
+        <v>2.7997288405895202E-2</v>
       </c>
       <c r="J60" s="4">
         <v>4.3752962356644602E-2</v>
       </c>
       <c r="K60" s="4">
-        <v>0.28867643090825301</v>
+        <v>0.311172556898129</v>
       </c>
       <c r="L60" s="4">
-        <v>0.115973471956945</v>
+        <v>8.7446074907201604E-2</v>
       </c>
       <c r="M60" s="4">
         <v>0.36249339926180402</v>
@@ -6637,23 +6036,23 @@
       </c>
       <c r="O60" s="2">
         <f t="shared" si="7"/>
-        <v>0.8108962644836466</v>
+        <v>0.80486499342377926</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="8"/>
-        <v>0.8108962644836466</v>
+        <v>0.80486499342377926</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="9"/>
-        <v>2.3899275884032199E-2</v>
+        <v>2.77436681836843E-2</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="10"/>
-        <v>3.279444320499892E-2</v>
+        <v>3.4029765143990476E-2</v>
       </c>
       <c r="S60" s="2">
         <f t="shared" si="11"/>
-        <v>3.2101543595393432E-2</v>
+        <v>3.2873791903257329E-2</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -6661,40 +6060,40 @@
         <v>23</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E61" s="4">
-        <v>2.77436681836843E-2</v>
+        <v>2.6586426645517299E-2</v>
       </c>
       <c r="F61" s="4">
-        <v>3.3120738118886897E-2</v>
+        <v>2.7891287952661499E-2</v>
       </c>
       <c r="G61" s="4">
-        <v>4.3783781826496102E-2</v>
+        <v>2.1367538720369301E-2</v>
       </c>
       <c r="H61" s="4">
-        <v>3.7503349184989897E-2</v>
+        <v>3.27387359738349E-2</v>
       </c>
       <c r="I61" s="4">
-        <v>2.7997288405895202E-2</v>
+        <v>6.3264073878526603E-2</v>
       </c>
       <c r="J61" s="4">
         <v>4.3752962356644602E-2</v>
       </c>
       <c r="K61" s="4">
-        <v>0.311172556898129</v>
+        <v>0.28867643090825301</v>
       </c>
       <c r="L61" s="4">
-        <v>8.7446074907201604E-2</v>
+        <v>0.15429914841435599</v>
       </c>
       <c r="M61" s="4">
-        <v>0.36249339926180402</v>
+        <v>0.63060801230386099</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="6"/>
@@ -6702,23 +6101,23 @@
       </c>
       <c r="O61" s="2">
         <f t="shared" si="7"/>
-        <v>0.80486499342377926</v>
+        <v>1.1173365539831146</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="8"/>
-        <v>0.80486499342377926</v>
+        <v>1.1173365539831146</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="9"/>
-        <v>2.77436681836843E-2</v>
+        <v>2.1367538720369301E-2</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="10"/>
-        <v>3.4029765143990476E-2</v>
+        <v>3.4369612634181923E-2</v>
       </c>
       <c r="S61" s="2">
         <f t="shared" si="11"/>
-        <v>3.2873791903257329E-2</v>
+        <v>2.9072150190671234E-2</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -6726,40 +6125,40 @@
         <v>23</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62" s="4">
-        <v>2.6586426645517299E-2</v>
+        <v>2.9289358928799601E-2</v>
       </c>
       <c r="F62" s="4">
-        <v>2.7891287952661499E-2</v>
+        <v>2.0665196850895799E-2</v>
       </c>
       <c r="G62" s="4">
-        <v>2.1367538720369301E-2</v>
+        <v>3.4484453350305498E-2</v>
       </c>
       <c r="H62" s="4">
-        <v>3.27387359738349E-2</v>
+        <v>5.0441996455192498E-2</v>
       </c>
       <c r="I62" s="4">
-        <v>6.3264073878526603E-2</v>
+        <v>3.9633916281163598E-2</v>
       </c>
       <c r="J62" s="4">
         <v>4.3752962356644602E-2</v>
       </c>
       <c r="K62" s="4">
-        <v>0.28867643090825301</v>
+        <v>0.311172556898129</v>
       </c>
       <c r="L62" s="4">
         <v>0.15429914841435599</v>
       </c>
       <c r="M62" s="4">
-        <v>0.63060801230386099</v>
+        <v>0.69774607612664197</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="6"/>
@@ -6767,23 +6166,23 @@
       </c>
       <c r="O62" s="2">
         <f t="shared" si="7"/>
-        <v>1.1173365539831146</v>
+        <v>1.2069707437957717</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="8"/>
-        <v>1.1173365539831146</v>
+        <v>1.2069707437957717</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="9"/>
-        <v>2.1367538720369301E-2</v>
+        <v>2.0665196850895799E-2</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="10"/>
-        <v>3.4369612634181923E-2</v>
+        <v>3.4902984373271398E-2</v>
       </c>
       <c r="S62" s="2">
         <f t="shared" si="11"/>
-        <v>2.9072150190671234E-2</v>
+        <v>3.4469242853422892E-2</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -6791,40 +6190,40 @@
         <v>23</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" s="4">
-        <v>2.9289358928799601E-2</v>
+        <v>3.2655211538076399E-2</v>
       </c>
       <c r="F63" s="4">
-        <v>2.0665196850895799E-2</v>
+        <v>4.2011944036930801E-2</v>
       </c>
       <c r="G63" s="4">
-        <v>3.4484453350305498E-2</v>
+        <v>2.9018545150756799E-2</v>
       </c>
       <c r="H63" s="4">
-        <v>5.0441996455192498E-2</v>
+        <v>4.0185687839984802E-2</v>
       </c>
       <c r="I63" s="4">
-        <v>3.9633916281163598E-2</v>
+        <v>3.2925058901309902E-2</v>
       </c>
       <c r="J63" s="4">
         <v>4.3752962356644602E-2</v>
       </c>
       <c r="K63" s="4">
-        <v>0.311172556898129</v>
+        <v>0.19618148798065799</v>
       </c>
       <c r="L63" s="4">
-        <v>0.15429914841435599</v>
+        <v>8.7446074907201604E-2</v>
       </c>
       <c r="M63" s="4">
-        <v>0.69774607612664197</v>
+        <v>0.63060801230386099</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="6"/>
@@ -6832,23 +6231,23 @@
       </c>
       <c r="O63" s="2">
         <f t="shared" si="7"/>
-        <v>1.2069707437957717</v>
+        <v>0.95798853754836522</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="8"/>
-        <v>1.2069707437957717</v>
+        <v>0.95798853754836522</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="9"/>
-        <v>2.0665196850895799E-2</v>
+        <v>2.9018545150756799E-2</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="10"/>
-        <v>3.4902984373271398E-2</v>
+        <v>3.5359289493411737E-2</v>
       </c>
       <c r="S63" s="2">
         <f t="shared" si="11"/>
-        <v>3.4469242853422892E-2</v>
+        <v>3.525531942645703E-2</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -6856,40 +6255,40 @@
         <v>23</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E64" s="4">
-        <v>3.2655211538076399E-2</v>
+        <v>3.8978907018899903E-2</v>
       </c>
       <c r="F64" s="4">
-        <v>4.2011944036930801E-2</v>
+        <v>4.75827902555465E-2</v>
       </c>
       <c r="G64" s="4">
-        <v>2.9018545150756799E-2</v>
+        <v>3.1517069637775397E-2</v>
       </c>
       <c r="H64" s="4">
-        <v>4.0185687839984802E-2</v>
+        <v>3.6330463141202897E-2</v>
       </c>
       <c r="I64" s="4">
-        <v>3.2925058901309902E-2</v>
+        <v>4.1718864291906299E-2</v>
       </c>
       <c r="J64" s="4">
         <v>4.3752962356644602E-2</v>
       </c>
       <c r="K64" s="4">
-        <v>0.19618148798065799</v>
+        <v>0.23618685450556701</v>
       </c>
       <c r="L64" s="4">
         <v>8.7446074907201604E-2</v>
       </c>
       <c r="M64" s="4">
-        <v>0.63060801230386099</v>
+        <v>0.77480318868283204</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="6"/>
@@ -6897,23 +6296,23 @@
       </c>
       <c r="O64" s="2">
         <f t="shared" si="7"/>
-        <v>0.95798853754836522</v>
+        <v>1.1421890804522452</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="8"/>
-        <v>0.95798853754836522</v>
+        <v>1.1421890804522452</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="9"/>
-        <v>2.9018545150756799E-2</v>
+        <v>3.1517069637775397E-2</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="10"/>
-        <v>3.5359289493411737E-2</v>
+        <v>3.9225618869066198E-2</v>
       </c>
       <c r="S64" s="2">
         <f t="shared" si="11"/>
-        <v>3.525531942645703E-2</v>
+        <v>3.9009411484003033E-2</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
@@ -6924,25 +6323,25 @@
         <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E65" s="4">
-        <v>3.8978907018899903E-2</v>
+        <v>4.0775808878242899E-2</v>
       </c>
       <c r="F65" s="4">
-        <v>4.75827902555465E-2</v>
+        <v>2.7379327714443201E-2</v>
       </c>
       <c r="G65" s="4">
-        <v>3.1517069637775397E-2</v>
+        <v>6.6997511684894498E-2</v>
       </c>
       <c r="H65" s="4">
-        <v>3.6330463141202897E-2</v>
+        <v>4.7396608591079699E-2</v>
       </c>
       <c r="I65" s="4">
-        <v>4.1718864291906299E-2</v>
+        <v>3.5781293958425497E-2</v>
       </c>
       <c r="J65" s="4">
         <v>4.3752962356644602E-2</v>
@@ -6951,34 +6350,34 @@
         <v>0.23618685450556701</v>
       </c>
       <c r="L65" s="4">
-        <v>8.7446074907201604E-2</v>
+        <v>0.15429914841435599</v>
       </c>
       <c r="M65" s="4">
-        <v>0.77480318868283204</v>
+        <v>0.93959082397753502</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N65:N96" si="12">MIN(J65:M65)</f>
         <v>4.3752962356644602E-2</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="7"/>
-        <v>1.1421890804522452</v>
+        <f t="shared" ref="O65:O96" si="13">SUM(J65:M65)</f>
+        <v>1.3738297892541027</v>
       </c>
       <c r="P65" s="2">
-        <f t="shared" si="8"/>
-        <v>1.1421890804522452</v>
+        <f t="shared" ref="P65:P96" si="14">ABS(J65)+ABS(K65)+ABS(L65)+ABS(M65)</f>
+        <v>1.3738297892541027</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="9"/>
-        <v>3.1517069637775397E-2</v>
+        <f t="shared" ref="Q65:Q96" si="15">MIN(E65:I65)</f>
+        <v>2.7379327714443201E-2</v>
       </c>
       <c r="R65" s="2">
-        <f t="shared" si="10"/>
-        <v>3.9225618869066198E-2</v>
+        <f t="shared" ref="R65:R96" si="16">AVERAGE(E65:I65)</f>
+        <v>4.366611016541716E-2</v>
       </c>
       <c r="S65" s="2">
-        <f t="shared" si="11"/>
-        <v>3.9009411484003033E-2</v>
+        <f t="shared" ref="S65:S96" si="17">(SUM(E65:I65)-MIN(E65:I65)-MAX(E65:I65))/3</f>
+        <v>4.1317903809249365E-2</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -6989,25 +6388,25 @@
         <v>22</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E66" s="4">
-        <v>4.0775808878242899E-2</v>
+        <v>7.0019352436065593E-2</v>
       </c>
       <c r="F66" s="4">
-        <v>2.7379327714443201E-2</v>
+        <v>5.4231092035770402E-2</v>
       </c>
       <c r="G66" s="4">
-        <v>6.6997511684894498E-2</v>
+        <v>2.8258338123559899E-2</v>
       </c>
       <c r="H66" s="4">
-        <v>4.7396608591079699E-2</v>
+        <v>5.0382700562477102E-2</v>
       </c>
       <c r="I66" s="4">
-        <v>3.5781293958425497E-2</v>
+        <v>3.17522753775119E-2</v>
       </c>
       <c r="J66" s="4">
         <v>4.3752962356644602E-2</v>
@@ -7016,34 +6415,34 @@
         <v>0.23618685450556701</v>
       </c>
       <c r="L66" s="4">
-        <v>0.15429914841435599</v>
+        <v>0.115973471956945</v>
       </c>
       <c r="M66" s="4">
-        <v>0.93959082397753502</v>
+        <v>0.61213057637116297</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" ref="N66:N97" si="12">MIN(J66:M66)</f>
+        <f t="shared" si="12"/>
         <v>4.3752962356644602E-2</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" ref="O66:O97" si="13">SUM(J66:M66)</f>
-        <v>1.3738297892541027</v>
+        <f t="shared" si="13"/>
+        <v>1.0080438651903196</v>
       </c>
       <c r="P66" s="2">
-        <f t="shared" ref="P66:P97" si="14">ABS(J66)+ABS(K66)+ABS(L66)+ABS(M66)</f>
-        <v>1.3738297892541027</v>
+        <f t="shared" si="14"/>
+        <v>1.0080438651903196</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" ref="Q66:Q97" si="15">MIN(E66:I66)</f>
-        <v>2.7379327714443201E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.8258338123559899E-2</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" ref="R66:R97" si="16">AVERAGE(E66:I66)</f>
-        <v>4.366611016541716E-2</v>
+        <f t="shared" si="16"/>
+        <v>4.6928751707076985E-2</v>
       </c>
       <c r="S66" s="2">
-        <f t="shared" ref="S66:S97" si="17">(SUM(E66:I66)-MIN(E66:I66)-MAX(E66:I66))/3</f>
-        <v>4.1317903809249365E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.5455355991919799E-2</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
@@ -7051,40 +6450,40 @@
         <v>23</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E67" s="4">
-        <v>7.0019352436065593E-2</v>
+        <v>0.139085803329944</v>
       </c>
       <c r="F67" s="4">
-        <v>5.4231092035770402E-2</v>
+        <v>3.4342942088842303E-2</v>
       </c>
       <c r="G67" s="4">
-        <v>2.8258338123559899E-2</v>
+        <v>7.7087123095989196E-2</v>
       </c>
       <c r="H67" s="4">
-        <v>5.0382700562477102E-2</v>
+        <v>4.45325917750597E-2</v>
       </c>
       <c r="I67" s="4">
-        <v>3.17522753775119E-2</v>
+        <v>0.112582274079322</v>
       </c>
       <c r="J67" s="4">
         <v>4.3752962356644602E-2</v>
       </c>
       <c r="K67" s="4">
-        <v>0.23618685450556701</v>
+        <v>0.19618148798065799</v>
       </c>
       <c r="L67" s="4">
         <v>0.115973471956945</v>
       </c>
       <c r="M67" s="4">
-        <v>0.61213057637116297</v>
+        <v>0.69774607612664197</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="12"/>
@@ -7092,88 +6491,88 @@
       </c>
       <c r="O67" s="2">
         <f t="shared" si="13"/>
-        <v>1.0080438651903196</v>
+        <v>1.0536539984208897</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="14"/>
-        <v>1.0080438651903196</v>
+        <v>1.0536539984208897</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="15"/>
-        <v>2.8258338123559899E-2</v>
+        <v>3.4342942088842303E-2</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="16"/>
-        <v>4.6928751707076985E-2</v>
+        <v>8.1526146873831445E-2</v>
       </c>
       <c r="S67" s="2">
         <f t="shared" si="17"/>
-        <v>4.5455355991919799E-2</v>
+        <v>7.8067329650123626E-2</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" s="4">
-        <v>0.139085803329944</v>
+        <v>4.3749910891056003E-2</v>
       </c>
       <c r="F68" s="4">
-        <v>3.4342942088842303E-2</v>
+        <v>1.77413830533623E-2</v>
       </c>
       <c r="G68" s="4">
-        <v>7.7087123095989196E-2</v>
+        <v>2.6470154970884299E-2</v>
       </c>
       <c r="H68" s="4">
-        <v>4.45325917750597E-2</v>
+        <v>2.22024995088577E-2</v>
       </c>
       <c r="I68" s="4">
-        <v>0.112582274079322</v>
+        <v>4.4915120005607601E-2</v>
       </c>
       <c r="J68" s="4">
-        <v>4.3752962356644602E-2</v>
+        <v>0.66040893986482696</v>
       </c>
       <c r="K68" s="4">
-        <v>0.19618148798065799</v>
+        <v>8.7446074907201604E-2</v>
       </c>
       <c r="L68" s="4">
-        <v>0.115973471956945</v>
+        <v>0.11710808008718999</v>
       </c>
       <c r="M68" s="4">
-        <v>0.69774607612664197</v>
+        <v>0.77480318868283204</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="12"/>
-        <v>4.3752962356644602E-2</v>
+        <v>8.7446074907201604E-2</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="13"/>
-        <v>1.0536539984208897</v>
+        <v>1.6397662835420506</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="14"/>
-        <v>1.0536539984208897</v>
+        <v>1.6397662835420506</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="15"/>
-        <v>3.4342942088842303E-2</v>
+        <v>1.77413830533623E-2</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="16"/>
-        <v>8.1526146873831445E-2</v>
+        <v>3.1015813685953582E-2</v>
       </c>
       <c r="S68" s="2">
         <f t="shared" si="17"/>
-        <v>7.8067329650123626E-2</v>
+        <v>3.0807521790266006E-2</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -7184,25 +6583,25 @@
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E69" s="4">
-        <v>4.3749910891056003E-2</v>
+        <v>3.2024069279432299E-2</v>
       </c>
       <c r="F69" s="4">
-        <v>1.77413830533623E-2</v>
+        <v>3.7465466409921599E-2</v>
       </c>
       <c r="G69" s="4">
-        <v>2.6470154970884299E-2</v>
+        <v>2.3105577453970901E-2</v>
       </c>
       <c r="H69" s="4">
-        <v>2.22024995088577E-2</v>
+        <v>2.1578376367688099E-2</v>
       </c>
       <c r="I69" s="4">
-        <v>4.4915120005607601E-2</v>
+        <v>4.1893465816974597E-2</v>
       </c>
       <c r="J69" s="4">
         <v>0.66040893986482696</v>
@@ -7211,10 +6610,10 @@
         <v>8.7446074907201604E-2</v>
       </c>
       <c r="L69" s="4">
-        <v>0.11710808008718999</v>
+        <v>0.10910851245905299</v>
       </c>
       <c r="M69" s="4">
-        <v>0.77480318868283204</v>
+        <v>0.63060801230386099</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" si="12"/>
@@ -7222,64 +6621,64 @@
       </c>
       <c r="O69" s="2">
         <f t="shared" si="13"/>
-        <v>1.6397662835420506</v>
+        <v>1.4875715395349425</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" si="14"/>
-        <v>1.6397662835420506</v>
+        <v>1.4875715395349425</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" si="15"/>
-        <v>1.77413830533623E-2</v>
+        <v>2.1578376367688099E-2</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" si="16"/>
-        <v>3.1015813685953582E-2</v>
+        <v>3.12133910655975E-2</v>
       </c>
       <c r="S69" s="2">
         <f t="shared" si="17"/>
-        <v>3.0807521790266006E-2</v>
+        <v>3.0865037714441611E-2</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E70" s="4">
-        <v>3.2024069279432299E-2</v>
+        <v>2.3057697191834401E-2</v>
       </c>
       <c r="F70" s="4">
-        <v>3.7465466409921599E-2</v>
+        <v>4.38102012872695E-2</v>
       </c>
       <c r="G70" s="4">
-        <v>2.3105577453970901E-2</v>
+        <v>2.7225847244262601E-2</v>
       </c>
       <c r="H70" s="4">
-        <v>2.1578376367688099E-2</v>
+        <v>3.1880629286169998E-2</v>
       </c>
       <c r="I70" s="4">
-        <v>4.1893465816974597E-2</v>
+        <v>3.4554174244403803E-2</v>
       </c>
       <c r="J70" s="4">
-        <v>0.66040893986482696</v>
+        <v>0.34483845482185699</v>
       </c>
       <c r="K70" s="4">
+        <v>0.23618685450556701</v>
+      </c>
+      <c r="L70" s="4">
         <v>8.7446074907201604E-2</v>
       </c>
-      <c r="L70" s="4">
-        <v>0.10910851245905299</v>
-      </c>
       <c r="M70" s="4">
-        <v>0.63060801230386099</v>
+        <v>0.11833176042660901</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
@@ -7287,23 +6686,23 @@
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>1.4875715395349425</v>
+        <v>0.78680314466123458</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>1.4875715395349425</v>
+        <v>0.78680314466123458</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>2.1578376367688099E-2</v>
+        <v>2.3057697191834401E-2</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="16"/>
-        <v>3.12133910655975E-2</v>
+        <v>3.2105709850788061E-2</v>
       </c>
       <c r="S70" s="2">
         <f t="shared" si="17"/>
-        <v>3.0865037714441611E-2</v>
+        <v>3.1220216924945466E-2</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
@@ -7311,40 +6710,40 @@
         <v>27</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E71" s="4">
-        <v>2.3057697191834401E-2</v>
+        <v>3.1650514900684303E-2</v>
       </c>
       <c r="F71" s="4">
-        <v>4.38102012872695E-2</v>
+        <v>3.2998389601707402E-2</v>
       </c>
       <c r="G71" s="4">
-        <v>2.7225847244262601E-2</v>
+        <v>3.69240713119506E-2</v>
       </c>
       <c r="H71" s="4">
-        <v>3.1880629286169998E-2</v>
+        <v>4.66796806454658E-2</v>
       </c>
       <c r="I71" s="4">
-        <v>3.4554174244403803E-2</v>
+        <v>3.0778825879096899E-2</v>
       </c>
       <c r="J71" s="4">
         <v>0.34483845482185699</v>
       </c>
       <c r="K71" s="4">
-        <v>0.23618685450556701</v>
+        <v>0.311172556898129</v>
       </c>
       <c r="L71" s="4">
         <v>8.7446074907201604E-2</v>
       </c>
       <c r="M71" s="4">
-        <v>0.11833176042660901</v>
+        <v>0.11710808008718999</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
@@ -7352,64 +6751,64 @@
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>0.78680314466123458</v>
+        <v>0.86056516671437755</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>0.78680314466123458</v>
+        <v>0.86056516671437755</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>2.3057697191834401E-2</v>
+        <v>3.0778825879096899E-2</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="16"/>
-        <v>3.2105709850788061E-2</v>
+        <v>3.5806296467780996E-2</v>
       </c>
       <c r="S71" s="2">
         <f t="shared" si="17"/>
-        <v>3.1220216924945466E-2</v>
+        <v>3.3857658604780766E-2</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E72" s="4">
-        <v>3.1650514900684303E-2</v>
+        <v>3.9372099339961997E-2</v>
       </c>
       <c r="F72" s="4">
-        <v>3.2998389601707402E-2</v>
+        <v>4.14455454051494E-2</v>
       </c>
       <c r="G72" s="4">
-        <v>3.69240713119506E-2</v>
+        <v>3.7086250483989697E-2</v>
       </c>
       <c r="H72" s="4">
-        <v>4.66796806454658E-2</v>
+        <v>1.8725280389189702E-2</v>
       </c>
       <c r="I72" s="4">
-        <v>3.0778825879096899E-2</v>
+        <v>5.7227928340434997E-2</v>
       </c>
       <c r="J72" s="4">
-        <v>0.34483845482185699</v>
+        <v>0.211239010925698</v>
       </c>
       <c r="K72" s="4">
-        <v>0.311172556898129</v>
+        <v>0.19618148798065799</v>
       </c>
       <c r="L72" s="4">
         <v>8.7446074907201604E-2</v>
       </c>
       <c r="M72" s="4">
-        <v>0.11710808008718999</v>
+        <v>0.11833176042660901</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
@@ -7417,64 +6816,64 @@
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>0.86056516671437755</v>
+        <v>0.61319833424016656</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>0.86056516671437755</v>
+        <v>0.61319833424016656</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>3.0778825879096899E-2</v>
+        <v>1.8725280389189702E-2</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="16"/>
-        <v>3.5806296467780996E-2</v>
+        <v>3.8771420791745156E-2</v>
       </c>
       <c r="S72" s="2">
         <f t="shared" si="17"/>
-        <v>3.3857658604780766E-2</v>
+        <v>3.9301298409700369E-2</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" s="4">
-        <v>3.9372099339961997E-2</v>
+        <v>3.3591666445135997E-2</v>
       </c>
       <c r="F73" s="4">
-        <v>4.14455454051494E-2</v>
+        <v>1.74507848918437E-2</v>
       </c>
       <c r="G73" s="4">
-        <v>3.7086250483989697E-2</v>
+        <v>5.9272335469722701E-2</v>
       </c>
       <c r="H73" s="4">
-        <v>1.8725280389189702E-2</v>
+        <v>2.6730171889066599E-2</v>
       </c>
       <c r="I73" s="4">
-        <v>5.7227928340434997E-2</v>
+        <v>5.9651659727096497E-2</v>
       </c>
       <c r="J73" s="4">
-        <v>0.211239010925698</v>
+        <v>0.44339170258481098</v>
       </c>
       <c r="K73" s="4">
-        <v>0.19618148798065799</v>
+        <v>0.23618685450556701</v>
       </c>
       <c r="L73" s="4">
         <v>8.7446074907201604E-2</v>
       </c>
       <c r="M73" s="4">
-        <v>0.11833176042660901</v>
+        <v>0.10910851245905299</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
@@ -7482,31 +6881,31 @@
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>0.61319833424016656</v>
+        <v>0.87613314445663248</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>0.61319833424016656</v>
+        <v>0.87613314445663248</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>1.8725280389189702E-2</v>
+        <v>1.74507848918437E-2</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="16"/>
-        <v>3.8771420791745156E-2</v>
+        <v>3.9339323684573095E-2</v>
       </c>
       <c r="S73" s="2">
         <f t="shared" si="17"/>
-        <v>3.9301298409700369E-2</v>
+        <v>3.9864724601308431E-2</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>9</v>
@@ -7515,25 +6914,25 @@
         <v>11</v>
       </c>
       <c r="E74" s="4">
-        <v>3.3591666445135997E-2</v>
+        <v>3.6194975450634902E-2</v>
       </c>
       <c r="F74" s="4">
-        <v>1.74507848918437E-2</v>
+        <v>4.2263128757476801E-2</v>
       </c>
       <c r="G74" s="4">
-        <v>5.9272335469722701E-2</v>
+        <v>4.1915647834539403E-2</v>
       </c>
       <c r="H74" s="4">
-        <v>2.6730171889066599E-2</v>
+        <v>4.6065151914954097E-2</v>
       </c>
       <c r="I74" s="4">
-        <v>5.9651659727096497E-2</v>
+        <v>7.6489905416965404E-2</v>
       </c>
       <c r="J74" s="4">
-        <v>0.44339170258481098</v>
+        <v>0.211239010925698</v>
       </c>
       <c r="K74" s="4">
-        <v>0.23618685450556701</v>
+        <v>0.311172556898129</v>
       </c>
       <c r="L74" s="4">
         <v>8.7446074907201604E-2</v>
@@ -7547,64 +6946,64 @@
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>0.87613314445663248</v>
+        <v>0.71896615519008156</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>0.87613314445663248</v>
+        <v>0.71896615519008156</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>1.74507848918437E-2</v>
+        <v>3.6194975450634902E-2</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="16"/>
-        <v>3.9339323684573095E-2</v>
+        <v>4.8585761874914118E-2</v>
       </c>
       <c r="S74" s="2">
         <f t="shared" si="17"/>
-        <v>3.9864724601308431E-2</v>
+        <v>4.3414642835656762E-2</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75" s="4">
-        <v>3.6194975450634902E-2</v>
+        <v>3.1653271615505199E-2</v>
       </c>
       <c r="F75" s="4">
-        <v>4.2263128757476801E-2</v>
+        <v>3.7806766331195799E-2</v>
       </c>
       <c r="G75" s="4">
-        <v>4.1915647834539403E-2</v>
+        <v>4.1364319995045598E-2</v>
       </c>
       <c r="H75" s="4">
-        <v>4.6065151914954097E-2</v>
+        <v>4.8832778781652403E-2</v>
       </c>
       <c r="I75" s="4">
-        <v>7.6489905416965404E-2</v>
+        <v>0.116114727556705</v>
       </c>
       <c r="J75" s="4">
-        <v>0.211239010925698</v>
+        <v>0.44339170258481098</v>
       </c>
       <c r="K75" s="4">
-        <v>0.311172556898129</v>
+        <v>0.19618148798065799</v>
       </c>
       <c r="L75" s="4">
         <v>8.7446074907201604E-2</v>
       </c>
       <c r="M75" s="4">
-        <v>0.10910851245905299</v>
+        <v>0.11710808008718999</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
@@ -7612,64 +7011,64 @@
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>0.71896615519008156</v>
+        <v>0.84412734555986046</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>0.71896615519008156</v>
+        <v>0.84412734555986046</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>3.6194975450634902E-2</v>
+        <v>3.1653271615505199E-2</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="16"/>
-        <v>4.8585761874914118E-2</v>
+        <v>5.5154372856020796E-2</v>
       </c>
       <c r="S75" s="2">
         <f t="shared" si="17"/>
-        <v>4.3414642835656762E-2</v>
+        <v>4.26679550359646E-2</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E76" s="4">
-        <v>3.1653271615505199E-2</v>
+        <v>5.3146175146102898E-2</v>
       </c>
       <c r="F76" s="4">
-        <v>3.7806766331195799E-2</v>
+        <v>2.1530075520277001E-2</v>
       </c>
       <c r="G76" s="4">
-        <v>4.1364319995045598E-2</v>
+        <v>3.5547989308834002E-2</v>
       </c>
       <c r="H76" s="4">
-        <v>4.8832778781652403E-2</v>
+        <v>0.143619607686996</v>
       </c>
       <c r="I76" s="4">
-        <v>0.116114727556705</v>
+        <v>2.4259385317564001E-2</v>
       </c>
       <c r="J76" s="4">
-        <v>0.44339170258481098</v>
+        <v>0.66040893986482696</v>
       </c>
       <c r="K76" s="4">
-        <v>0.19618148798065799</v>
+        <v>8.7446074907201604E-2</v>
       </c>
       <c r="L76" s="4">
-        <v>8.7446074907201604E-2</v>
+        <v>0.11833176042660901</v>
       </c>
       <c r="M76" s="4">
-        <v>0.11710808008718999</v>
+        <v>0.36249339926180402</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
@@ -7677,23 +7076,23 @@
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>0.84412734555986046</v>
+        <v>1.2286801744604414</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>0.84412734555986046</v>
+        <v>1.2286801744604414</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>3.1653271615505199E-2</v>
+        <v>2.1530075520277001E-2</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="16"/>
-        <v>5.5154372856020796E-2</v>
+        <v>5.5620646595954781E-2</v>
       </c>
       <c r="S76" s="2">
         <f t="shared" si="17"/>
-        <v>4.26679550359646E-2</v>
+        <v>3.7651183257500297E-2</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -7701,72 +7100,72 @@
         <v>1</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E77" s="4">
-        <v>5.3146175146102898E-2</v>
+        <v>2.7308274358510898E-2</v>
       </c>
       <c r="F77" s="4">
-        <v>2.1530075520277001E-2</v>
+        <v>3.4079321697354302E-2</v>
       </c>
       <c r="G77" s="4">
-        <v>3.5547989308834002E-2</v>
+        <v>2.5825830250978399E-2</v>
       </c>
       <c r="H77" s="4">
-        <v>0.143619607686996</v>
+        <v>2.2325375676155002E-2</v>
       </c>
       <c r="I77" s="4">
-        <v>2.4259385317564001E-2</v>
+        <v>3.5329306572675703E-2</v>
       </c>
       <c r="J77" s="4">
         <v>0.66040893986482696</v>
       </c>
       <c r="K77" s="4">
-        <v>8.7446074907201604E-2</v>
+        <v>0.15429914841435599</v>
       </c>
       <c r="L77" s="4">
-        <v>0.11833176042660901</v>
+        <v>9.3180979554665297E-2</v>
       </c>
       <c r="M77" s="4">
-        <v>0.36249339926180402</v>
+        <v>0.63060801230386099</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>8.7446074907201604E-2</v>
+        <v>9.3180979554665297E-2</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>1.2286801744604414</v>
+        <v>1.5384970801377094</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>1.2286801744604414</v>
+        <v>1.5384970801377094</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>2.1530075520277001E-2</v>
+        <v>2.2325375676155002E-2</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="16"/>
-        <v>5.5620646595954781E-2</v>
+        <v>2.8973621711134861E-2</v>
       </c>
       <c r="S77" s="2">
         <f t="shared" si="17"/>
-        <v>3.7651183257500297E-2</v>
+        <v>2.9071142102281202E-2</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>14</v>
@@ -7775,25 +7174,25 @@
         <v>6</v>
       </c>
       <c r="E78" s="4">
-        <v>2.7308274358510898E-2</v>
+        <v>3.7851869463920503E-2</v>
       </c>
       <c r="F78" s="4">
-        <v>3.4079321697354302E-2</v>
+        <v>2.0562492236494999E-2</v>
       </c>
       <c r="G78" s="4">
-        <v>2.5825830250978399E-2</v>
+        <v>3.2006704807281398E-2</v>
       </c>
       <c r="H78" s="4">
-        <v>2.2325375676155002E-2</v>
+        <v>2.78254067897796E-2</v>
       </c>
       <c r="I78" s="4">
-        <v>3.5329306572675703E-2</v>
+        <v>3.4669587314128801E-2</v>
       </c>
       <c r="J78" s="4">
-        <v>0.66040893986482696</v>
+        <v>0.45661885009589398</v>
       </c>
       <c r="K78" s="4">
-        <v>0.15429914841435599</v>
+        <v>0.19618148798065799</v>
       </c>
       <c r="L78" s="4">
         <v>9.3180979554665297E-2</v>
@@ -7807,23 +7206,23 @@
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>1.5384970801377094</v>
+        <v>1.3765893299350782</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>1.5384970801377094</v>
+        <v>1.3765893299350782</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>2.2325375676155002E-2</v>
+        <v>2.0562492236494999E-2</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="16"/>
-        <v>2.8973621711134861E-2</v>
+        <v>3.0583212122321062E-2</v>
       </c>
       <c r="S78" s="2">
         <f t="shared" si="17"/>
-        <v>2.9071142102281202E-2</v>
+        <v>3.1500566303729938E-2</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -7831,40 +7230,40 @@
         <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E79" s="4">
-        <v>3.7851869463920503E-2</v>
+        <v>3.5674573183059603E-2</v>
       </c>
       <c r="F79" s="4">
-        <v>2.0562492236494999E-2</v>
+        <v>2.99653768539428E-2</v>
       </c>
       <c r="G79" s="4">
-        <v>3.2006704807281398E-2</v>
+        <v>2.36224824190139E-2</v>
       </c>
       <c r="H79" s="4">
-        <v>2.78254067897796E-2</v>
+        <v>2.1037048548459999E-2</v>
       </c>
       <c r="I79" s="4">
-        <v>3.4669587314128801E-2</v>
+        <v>4.86226660013198E-2</v>
       </c>
       <c r="J79" s="4">
         <v>0.45661885009589398</v>
       </c>
       <c r="K79" s="4">
-        <v>0.19618148798065799</v>
+        <v>0.311172556898129</v>
       </c>
       <c r="L79" s="4">
         <v>9.3180979554665297E-2</v>
       </c>
       <c r="M79" s="4">
-        <v>0.63060801230386099</v>
+        <v>0.36249339926180402</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
@@ -7872,64 +7271,64 @@
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>1.3765893299350782</v>
+        <v>1.2234657858104923</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>1.3765893299350782</v>
+        <v>1.2234657858104923</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>2.0562492236494999E-2</v>
+        <v>2.1037048548459999E-2</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="16"/>
-        <v>3.0583212122321062E-2</v>
+        <v>3.178442940115922E-2</v>
       </c>
       <c r="S79" s="2">
         <f t="shared" si="17"/>
-        <v>3.1500566303729938E-2</v>
+        <v>2.9754144152005432E-2</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E80" s="4">
-        <v>3.5674573183059603E-2</v>
+        <v>4.8658995032310401E-2</v>
       </c>
       <c r="F80" s="4">
-        <v>2.99653768539428E-2</v>
+        <v>4.8615322411060299E-2</v>
       </c>
       <c r="G80" s="4">
-        <v>2.36224824190139E-2</v>
+        <v>2.62638719379901E-2</v>
       </c>
       <c r="H80" s="4">
-        <v>2.1037048548459999E-2</v>
+        <v>4.8661927878856599E-2</v>
       </c>
       <c r="I80" s="4">
-        <v>4.86226660013198E-2</v>
+        <v>2.4887780696153598E-2</v>
       </c>
       <c r="J80" s="4">
-        <v>0.45661885009589398</v>
+        <v>0.211239010925698</v>
       </c>
       <c r="K80" s="4">
         <v>0.311172556898129</v>
       </c>
       <c r="L80" s="4">
+        <v>0.15429914841435599</v>
+      </c>
+      <c r="M80" s="4">
         <v>9.3180979554665297E-2</v>
-      </c>
-      <c r="M80" s="4">
-        <v>0.36249339926180402</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
@@ -7937,64 +7336,64 @@
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>1.2234657858104923</v>
+        <v>0.76989169579284833</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>1.2234657858104923</v>
+        <v>0.76989169579284833</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>2.1037048548459999E-2</v>
+        <v>2.4887780696153598E-2</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="16"/>
-        <v>3.178442940115922E-2</v>
+        <v>3.9417579591274197E-2</v>
       </c>
       <c r="S80" s="2">
         <f t="shared" si="17"/>
-        <v>2.9754144152005432E-2</v>
+        <v>4.1179396460453599E-2</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4">
-        <v>4.8658995032310401E-2</v>
+        <v>1.8139833807945201E-2</v>
       </c>
       <c r="F81" s="4">
-        <v>4.8615322411060299E-2</v>
+        <v>1.7868294790387099E-2</v>
       </c>
       <c r="G81" s="4">
-        <v>2.62638719379901E-2</v>
+        <v>0.124264313280582</v>
       </c>
       <c r="H81" s="4">
-        <v>4.8661927878856599E-2</v>
+        <v>2.67136793583631E-2</v>
       </c>
       <c r="I81" s="4">
-        <v>2.4887780696153598E-2</v>
+        <v>1.4618431702256201E-2</v>
       </c>
       <c r="J81" s="4">
-        <v>0.211239010925698</v>
+        <v>0.45661885009589398</v>
       </c>
       <c r="K81" s="4">
-        <v>0.311172556898129</v>
+        <v>0.23618685450556701</v>
       </c>
       <c r="L81" s="4">
-        <v>0.15429914841435599</v>
+        <v>9.3180979554665297E-2</v>
       </c>
       <c r="M81" s="4">
-        <v>9.3180979554665297E-2</v>
+        <v>0.77480318868283204</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
@@ -8002,64 +7401,64 @@
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>0.76989169579284833</v>
+        <v>1.5607898728389582</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>0.76989169579284833</v>
+        <v>1.5607898728389582</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>2.4887780696153598E-2</v>
+        <v>1.4618431702256201E-2</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="16"/>
-        <v>3.9417579591274197E-2</v>
+        <v>4.0320910587906725E-2</v>
       </c>
       <c r="S81" s="2">
         <f t="shared" si="17"/>
-        <v>4.1179396460453599E-2</v>
+        <v>2.0907269318898473E-2</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E82" s="4">
-        <v>1.8139833807945201E-2</v>
+        <v>1.9311713874340001E-2</v>
       </c>
       <c r="F82" s="4">
-        <v>1.7868294790387099E-2</v>
+        <v>0.123125877976417</v>
       </c>
       <c r="G82" s="4">
-        <v>0.124264313280582</v>
+        <v>1.6584898754954301E-2</v>
       </c>
       <c r="H82" s="4">
-        <v>2.67136793583631E-2</v>
+        <v>2.3786929100751801E-2</v>
       </c>
       <c r="I82" s="4">
-        <v>1.4618431702256201E-2</v>
+        <v>2.7821294069290101E-2</v>
       </c>
       <c r="J82" s="4">
-        <v>0.45661885009589398</v>
+        <v>0.66040893986482696</v>
       </c>
       <c r="K82" s="4">
-        <v>0.23618685450556701</v>
+        <v>0.115973471956945</v>
       </c>
       <c r="L82" s="4">
         <v>9.3180979554665297E-2</v>
       </c>
       <c r="M82" s="4">
-        <v>0.77480318868283204</v>
+        <v>0.36249339926180402</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
@@ -8067,64 +7466,64 @@
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>1.5607898728389582</v>
+        <v>1.2320567906382411</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>1.5607898728389582</v>
+        <v>1.2320567906382411</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>1.4618431702256201E-2</v>
+        <v>1.6584898754954301E-2</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="16"/>
-        <v>4.0320910587906725E-2</v>
+        <v>4.2126142755150642E-2</v>
       </c>
       <c r="S82" s="2">
         <f t="shared" si="17"/>
-        <v>2.0907269318898473E-2</v>
+        <v>2.3639979014793967E-2</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E83" s="4">
-        <v>1.9311713874340001E-2</v>
+        <v>4.4178014695644301E-2</v>
       </c>
       <c r="F83" s="4">
-        <v>0.123125877976417</v>
+        <v>4.5187682658433898E-2</v>
       </c>
       <c r="G83" s="4">
-        <v>1.6584898754954301E-2</v>
+        <v>3.8238674476742701E-2</v>
       </c>
       <c r="H83" s="4">
-        <v>2.3786929100751801E-2</v>
+        <v>3.9846972227096503E-2</v>
       </c>
       <c r="I83" s="4">
-        <v>2.7821294069290101E-2</v>
+        <v>4.5683572888374303E-2</v>
       </c>
       <c r="J83" s="4">
-        <v>0.66040893986482696</v>
+        <v>0.44339170258481098</v>
       </c>
       <c r="K83" s="4">
-        <v>0.115973471956945</v>
+        <v>0.23618685450556701</v>
       </c>
       <c r="L83" s="4">
+        <v>0.15429914841435599</v>
+      </c>
+      <c r="M83" s="4">
         <v>9.3180979554665297E-2</v>
-      </c>
-      <c r="M83" s="4">
-        <v>0.36249339926180402</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
@@ -8132,61 +7531,61 @@
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>1.2320567906382411</v>
+        <v>0.92705868505939926</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>1.2320567906382411</v>
+        <v>0.92705868505939926</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>1.6584898754954301E-2</v>
+        <v>3.8238674476742701E-2</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="16"/>
-        <v>4.2126142755150642E-2</v>
+        <v>4.2626983389258341E-2</v>
       </c>
       <c r="S83" s="2">
         <f t="shared" si="17"/>
-        <v>2.3639979014793967E-2</v>
+        <v>4.3070889860391565E-2</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="4">
-        <v>4.4178014695644301E-2</v>
+        <v>5.2653039246797498E-2</v>
       </c>
       <c r="F84" s="4">
-        <v>4.5187682658433898E-2</v>
+        <v>4.8166668564081097E-2</v>
       </c>
       <c r="G84" s="4">
-        <v>3.8238674476742701E-2</v>
+        <v>4.8008273988962097E-2</v>
       </c>
       <c r="H84" s="4">
-        <v>3.9846972227096503E-2</v>
+        <v>5.6424434185028002E-2</v>
       </c>
       <c r="I84" s="4">
-        <v>4.5683572888374303E-2</v>
+        <v>4.0954800099134402E-2</v>
       </c>
       <c r="J84" s="4">
-        <v>0.44339170258481098</v>
+        <v>0.34483845482185699</v>
       </c>
       <c r="K84" s="4">
         <v>0.23618685450556701</v>
       </c>
       <c r="L84" s="4">
-        <v>0.15429914841435599</v>
+        <v>0.115973471956945</v>
       </c>
       <c r="M84" s="4">
         <v>9.3180979554665297E-2</v>
@@ -8197,31 +7596,31 @@
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>0.92705868505939926</v>
+        <v>0.7901797608390343</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>0.92705868505939926</v>
+        <v>0.7901797608390343</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>3.8238674476742701E-2</v>
+        <v>4.0954800099134402E-2</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="16"/>
-        <v>4.2626983389258341E-2</v>
+        <v>4.9241443216800622E-2</v>
       </c>
       <c r="S84" s="2">
         <f t="shared" si="17"/>
-        <v>4.3070889860391565E-2</v>
+        <v>4.9609327266613566E-2</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>13</v>
@@ -8230,25 +7629,25 @@
         <v>14</v>
       </c>
       <c r="E85" s="4">
-        <v>5.2653039246797498E-2</v>
+        <v>7.4486271664500198E-2</v>
       </c>
       <c r="F85" s="4">
-        <v>4.8166668564081097E-2</v>
+        <v>0.13509981393814</v>
       </c>
       <c r="G85" s="4">
-        <v>4.8008273988962097E-2</v>
+        <v>3.4089271426200801E-2</v>
       </c>
       <c r="H85" s="4">
-        <v>5.6424434185028002E-2</v>
+        <v>4.8101216554641703E-2</v>
       </c>
       <c r="I85" s="4">
-        <v>4.0954800099134402E-2</v>
+        <v>3.86693716049194E-2</v>
       </c>
       <c r="J85" s="4">
-        <v>0.34483845482185699</v>
+        <v>0.211239010925698</v>
       </c>
       <c r="K85" s="4">
-        <v>0.23618685450556701</v>
+        <v>0.19618148798065799</v>
       </c>
       <c r="L85" s="4">
         <v>0.115973471956945</v>
@@ -8262,88 +7661,88 @@
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>0.7901797608390343</v>
+        <v>0.61657495041796628</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>0.7901797608390343</v>
+        <v>0.61657495041796628</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>4.0954800099134402E-2</v>
+        <v>3.4089271426200801E-2</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="16"/>
-        <v>4.9241443216800622E-2</v>
+        <v>6.6089189037680421E-2</v>
       </c>
       <c r="S85" s="2">
         <f t="shared" si="17"/>
-        <v>4.9609327266613566E-2</v>
+        <v>5.3752286608020443E-2</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E86" s="4">
-        <v>7.4486271664500198E-2</v>
+        <v>1.65324518084526E-2</v>
       </c>
       <c r="F86" s="4">
-        <v>0.13509981393814</v>
+        <v>3.2930924147367403E-2</v>
       </c>
       <c r="G86" s="4">
-        <v>3.4089271426200801E-2</v>
+        <v>2.0490031540393801E-2</v>
       </c>
       <c r="H86" s="4">
-        <v>4.8101216554641703E-2</v>
+        <v>2.2939883172511999E-2</v>
       </c>
       <c r="I86" s="4">
-        <v>3.86693716049194E-2</v>
+        <v>3.7365242242813103E-2</v>
       </c>
       <c r="J86" s="4">
-        <v>0.211239010925698</v>
+        <v>0.45661885009589398</v>
       </c>
       <c r="K86" s="4">
-        <v>0.19618148798065799</v>
+        <v>0.311172556898129</v>
       </c>
       <c r="L86" s="4">
-        <v>0.115973471956945</v>
+        <v>0.10910851245905299</v>
       </c>
       <c r="M86" s="4">
-        <v>9.3180979554665297E-2</v>
+        <v>0.69774607612664197</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>9.3180979554665297E-2</v>
+        <v>0.10910851245905299</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>0.61657495041796628</v>
+        <v>1.5746459955797181</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>0.61657495041796628</v>
+        <v>1.5746459955797181</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>3.4089271426200801E-2</v>
+        <v>1.65324518084526E-2</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="16"/>
-        <v>6.6089189037680421E-2</v>
+        <v>2.6051706582307783E-2</v>
       </c>
       <c r="S86" s="2">
         <f t="shared" si="17"/>
-        <v>5.3752286608020443E-2</v>
+        <v>2.5453612953424399E-2</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
@@ -8351,40 +7750,40 @@
         <v>17</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E87" s="4">
-        <v>1.65324518084526E-2</v>
+        <v>3.0398731157183601E-2</v>
       </c>
       <c r="F87" s="4">
-        <v>3.2930924147367403E-2</v>
+        <v>3.7218868881464001E-2</v>
       </c>
       <c r="G87" s="4">
-        <v>2.0490031540393801E-2</v>
+        <v>2.4070092290639802E-2</v>
       </c>
       <c r="H87" s="4">
-        <v>2.2939883172511999E-2</v>
+        <v>2.6952473968267401E-2</v>
       </c>
       <c r="I87" s="4">
-        <v>3.7365242242813103E-2</v>
+        <v>4.1975010782480199E-2</v>
       </c>
       <c r="J87" s="4">
         <v>0.45661885009589398</v>
       </c>
       <c r="K87" s="4">
-        <v>0.311172556898129</v>
+        <v>0.23618685450556701</v>
       </c>
       <c r="L87" s="4">
         <v>0.10910851245905299</v>
       </c>
       <c r="M87" s="4">
-        <v>0.69774607612664197</v>
+        <v>0.93959082397753502</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
@@ -8392,23 +7791,23 @@
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>1.5746459955797181</v>
+        <v>1.741505041038049</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>1.5746459955797181</v>
+        <v>1.741505041038049</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>1.65324518084526E-2</v>
+        <v>2.4070092290639802E-2</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="16"/>
-        <v>2.6051706582307783E-2</v>
+        <v>3.2123035416007001E-2</v>
       </c>
       <c r="S87" s="2">
         <f t="shared" si="17"/>
-        <v>2.5453612953424399E-2</v>
+        <v>3.1523358002304998E-2</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
@@ -8416,40 +7815,40 @@
         <v>17</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E88" s="4">
-        <v>3.0398731157183601E-2</v>
+        <v>1.5876855701208101E-2</v>
       </c>
       <c r="F88" s="4">
-        <v>3.7218868881464001E-2</v>
+        <v>4.8820018768310498E-2</v>
       </c>
       <c r="G88" s="4">
-        <v>2.4070092290639802E-2</v>
+        <v>6.2652954347431594E-2</v>
       </c>
       <c r="H88" s="4">
-        <v>2.6952473968267401E-2</v>
+        <v>2.39449490606784E-2</v>
       </c>
       <c r="I88" s="4">
-        <v>4.1975010782480199E-2</v>
+        <v>2.6848057545721501E-2</v>
       </c>
       <c r="J88" s="4">
         <v>0.45661885009589398</v>
       </c>
       <c r="K88" s="4">
-        <v>0.23618685450556701</v>
+        <v>0.28867643090825301</v>
       </c>
       <c r="L88" s="4">
         <v>0.10910851245905299</v>
       </c>
       <c r="M88" s="4">
-        <v>0.93959082397753502</v>
+        <v>0.63060801230386099</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
@@ -8457,64 +7856,64 @@
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>1.741505041038049</v>
+        <v>1.4850118057670609</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>1.741505041038049</v>
+        <v>1.4850118057670609</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>2.4070092290639802E-2</v>
+        <v>1.5876855701208101E-2</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="16"/>
-        <v>3.2123035416007001E-2</v>
+        <v>3.5628567084670021E-2</v>
       </c>
       <c r="S88" s="2">
         <f t="shared" si="17"/>
-        <v>3.1523358002304998E-2</v>
+        <v>3.3204341791570141E-2</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E89" s="4">
-        <v>1.5876855701208101E-2</v>
+        <v>3.5246590077876998E-2</v>
       </c>
       <c r="F89" s="4">
-        <v>4.8820018768310498E-2</v>
+        <v>4.51532450318336E-2</v>
       </c>
       <c r="G89" s="4">
-        <v>6.2652954347431594E-2</v>
+        <v>3.70531755685806E-2</v>
       </c>
       <c r="H89" s="4">
-        <v>2.39449490606784E-2</v>
+        <v>4.6799895167350697E-2</v>
       </c>
       <c r="I89" s="4">
-        <v>2.6848057545721501E-2</v>
+        <v>3.7720487415790503E-2</v>
       </c>
       <c r="J89" s="4">
-        <v>0.45661885009589398</v>
+        <v>0.211239010925698</v>
       </c>
       <c r="K89" s="4">
         <v>0.28867643090825301</v>
       </c>
       <c r="L89" s="4">
+        <v>0.115973471956945</v>
+      </c>
+      <c r="M89" s="4">
         <v>0.10910851245905299</v>
-      </c>
-      <c r="M89" s="4">
-        <v>0.63060801230386099</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
@@ -8522,31 +7921,31 @@
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>1.4850118057670609</v>
+        <v>0.7249974262499489</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>1.4850118057670609</v>
+        <v>0.7249974262499489</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>1.5876855701208101E-2</v>
+        <v>3.5246590077876998E-2</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="16"/>
-        <v>3.5628567084670021E-2</v>
+        <v>4.0394678652286478E-2</v>
       </c>
       <c r="S89" s="2">
         <f t="shared" si="17"/>
-        <v>3.3204341791570141E-2</v>
+        <v>3.997563600540157E-2</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>13</v>
@@ -8555,25 +7954,25 @@
         <v>11</v>
       </c>
       <c r="E90" s="4">
-        <v>3.5246590077876998E-2</v>
+        <v>3.5541522800922397E-2</v>
       </c>
       <c r="F90" s="4">
-        <v>4.51532450318336E-2</v>
+        <v>3.7065845429897298E-2</v>
       </c>
       <c r="G90" s="4">
-        <v>3.70531755685806E-2</v>
+        <v>2.9932390227913799E-2</v>
       </c>
       <c r="H90" s="4">
-        <v>4.6799895167350697E-2</v>
+        <v>7.8915285766124693E-2</v>
       </c>
       <c r="I90" s="4">
-        <v>3.7720487415790503E-2</v>
+        <v>6.4236967712640702E-2</v>
       </c>
       <c r="J90" s="4">
-        <v>0.211239010925698</v>
+        <v>0.40452430961547398</v>
       </c>
       <c r="K90" s="4">
-        <v>0.28867643090825301</v>
+        <v>0.23618685450556701</v>
       </c>
       <c r="L90" s="4">
         <v>0.115973471956945</v>
@@ -8587,64 +7986,64 @@
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>0.7249974262499489</v>
+        <v>0.86579314853703893</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>0.7249974262499489</v>
+        <v>0.86579314853703893</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>3.5246590077876998E-2</v>
+        <v>2.9932390227913799E-2</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="16"/>
-        <v>4.0394678652286478E-2</v>
+        <v>4.913840238749978E-2</v>
       </c>
       <c r="S90" s="2">
         <f t="shared" si="17"/>
-        <v>3.997563600540157E-2</v>
+        <v>4.5614778647820133E-2</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E91" s="4">
-        <v>3.5541522800922397E-2</v>
+        <v>2.7360171377658799E-2</v>
       </c>
       <c r="F91" s="4">
-        <v>3.7065845429897298E-2</v>
+        <v>3.5763993412256202E-2</v>
       </c>
       <c r="G91" s="4">
-        <v>2.9932390227913799E-2</v>
+        <v>3.5819127708673397E-2</v>
       </c>
       <c r="H91" s="4">
-        <v>7.8915285766124693E-2</v>
+        <v>3.8070886880159298E-2</v>
       </c>
       <c r="I91" s="4">
-        <v>6.4236967712640702E-2</v>
+        <v>0.13633799910545299</v>
       </c>
       <c r="J91" s="4">
-        <v>0.40452430961547398</v>
+        <v>0.66040893986482696</v>
       </c>
       <c r="K91" s="4">
-        <v>0.23618685450556701</v>
+        <v>0.115973471956945</v>
       </c>
       <c r="L91" s="4">
-        <v>0.115973471956945</v>
+        <v>0.10910851245905299</v>
       </c>
       <c r="M91" s="4">
-        <v>0.10910851245905299</v>
+        <v>0.69774607612664197</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
@@ -8652,23 +8051,23 @@
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>0.86579314853703893</v>
+        <v>1.583237000407467</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>0.86579314853703893</v>
+        <v>1.583237000407467</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>2.9932390227913799E-2</v>
+        <v>2.7360171377658799E-2</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="16"/>
-        <v>4.913840238749978E-2</v>
+        <v>5.4670435696840138E-2</v>
       </c>
       <c r="S91" s="2">
         <f t="shared" si="17"/>
-        <v>4.5614778647820133E-2</v>
+        <v>3.6551336000362956E-2</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -8679,25 +8078,25 @@
         <v>13</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E92" s="4">
-        <v>2.7360171377658799E-2</v>
+        <v>1.7894024401903099E-2</v>
       </c>
       <c r="F92" s="4">
-        <v>3.5763993412256202E-2</v>
+        <v>3.9874754995107599E-2</v>
       </c>
       <c r="G92" s="4">
-        <v>3.5819127708673397E-2</v>
+        <v>3.7810862958431203E-2</v>
       </c>
       <c r="H92" s="4">
-        <v>3.8070886880159298E-2</v>
+        <v>3.9544238224625501E-2</v>
       </c>
       <c r="I92" s="4">
-        <v>0.13633799910545299</v>
+        <v>1.8159430921077701E-2</v>
       </c>
       <c r="J92" s="4">
         <v>0.66040893986482696</v>
@@ -8706,75 +8105,75 @@
         <v>0.115973471956945</v>
       </c>
       <c r="L92" s="4">
-        <v>0.10910851245905299</v>
+        <v>0.11710808008718999</v>
       </c>
       <c r="M92" s="4">
-        <v>0.69774607612664197</v>
+        <v>0.61213057637116297</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>0.10910851245905299</v>
+        <v>0.115973471956945</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>1.583237000407467</v>
+        <v>1.5056210682801248</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>1.583237000407467</v>
+        <v>1.5056210682801248</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>2.7360171377658799E-2</v>
+        <v>1.7894024401903099E-2</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="16"/>
-        <v>5.4670435696840138E-2</v>
+        <v>3.0656662300229016E-2</v>
       </c>
       <c r="S92" s="2">
         <f t="shared" si="17"/>
-        <v>3.6551336000362956E-2</v>
+        <v>3.1838177368044791E-2</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="E93" s="4">
-        <v>1.7894024401903099E-2</v>
+        <v>4.9338613152503902E-2</v>
       </c>
       <c r="F93" s="4">
-        <v>3.9874754995107599E-2</v>
+        <v>2.7920439243316601E-2</v>
       </c>
       <c r="G93" s="4">
-        <v>3.7810862958431203E-2</v>
+        <v>2.9188845455646501E-2</v>
       </c>
       <c r="H93" s="4">
-        <v>3.9544238224625501E-2</v>
+        <v>2.5618085712194399E-2</v>
       </c>
       <c r="I93" s="4">
-        <v>1.8159430921077701E-2</v>
+        <v>4.9988319277763302E-2</v>
       </c>
       <c r="J93" s="4">
-        <v>0.66040893986482696</v>
+        <v>0.34483845482185699</v>
       </c>
       <c r="K93" s="4">
+        <v>0.28867643090825301</v>
+      </c>
+      <c r="L93" s="4">
         <v>0.115973471956945</v>
       </c>
-      <c r="L93" s="4">
+      <c r="M93" s="4">
         <v>0.11710808008718999</v>
-      </c>
-      <c r="M93" s="4">
-        <v>0.61213057637116297</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
@@ -8782,31 +8181,31 @@
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>1.5056210682801248</v>
+        <v>0.866596437774245</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>1.5056210682801248</v>
+        <v>0.866596437774245</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>1.7894024401903099E-2</v>
+        <v>2.5618085712194399E-2</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="16"/>
-        <v>3.0656662300229016E-2</v>
+        <v>3.6410860568284943E-2</v>
       </c>
       <c r="S93" s="2">
         <f t="shared" si="17"/>
-        <v>3.1838177368044791E-2</v>
+        <v>3.5482632617155667E-2</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>13</v>
@@ -8815,25 +8214,25 @@
         <v>12</v>
       </c>
       <c r="E94" s="4">
-        <v>4.9338613152503902E-2</v>
+        <v>2.9345718473196E-2</v>
       </c>
       <c r="F94" s="4">
-        <v>2.7920439243316601E-2</v>
+        <v>3.7576187849044797E-2</v>
       </c>
       <c r="G94" s="4">
-        <v>2.9188845455646501E-2</v>
+        <v>4.5445195436477598E-2</v>
       </c>
       <c r="H94" s="4">
-        <v>2.5618085712194399E-2</v>
+        <v>3.3196979910135198E-2</v>
       </c>
       <c r="I94" s="4">
-        <v>4.9988319277763302E-2</v>
+        <v>0.180004802644252</v>
       </c>
       <c r="J94" s="4">
-        <v>0.34483845482185699</v>
+        <v>0.40452430961547398</v>
       </c>
       <c r="K94" s="4">
-        <v>0.28867643090825301</v>
+        <v>0.19618148798065799</v>
       </c>
       <c r="L94" s="4">
         <v>0.115973471956945</v>
@@ -8847,96 +8246,96 @@
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>0.866596437774245</v>
+        <v>0.83378734964026691</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>0.866596437774245</v>
+        <v>0.83378734964026691</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>2.5618085712194399E-2</v>
+        <v>2.9345718473196E-2</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="16"/>
-        <v>3.6410860568284943E-2</v>
+        <v>6.5113776862621126E-2</v>
       </c>
       <c r="S94" s="2">
         <f t="shared" si="17"/>
-        <v>3.5482632617155667E-2</v>
+        <v>3.8739454398552531E-2</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E95" s="4">
-        <v>2.9345718473196E-2</v>
+        <v>2.9497322589158999E-2</v>
       </c>
       <c r="F95" s="4">
-        <v>3.7576187849044797E-2</v>
+        <v>1.55656598508358E-2</v>
       </c>
       <c r="G95" s="4">
-        <v>4.5445195436477598E-2</v>
+        <v>1.7815358787775001E-2</v>
       </c>
       <c r="H95" s="4">
-        <v>3.3196979910135198E-2</v>
+        <v>4.1690176576375901E-2</v>
       </c>
       <c r="I95" s="4">
-        <v>0.180004802644252</v>
+        <v>2.4163257628679199E-2</v>
       </c>
       <c r="J95" s="4">
-        <v>0.40452430961547398</v>
+        <v>0.66040893986482696</v>
       </c>
       <c r="K95" s="4">
-        <v>0.19618148798065799</v>
+        <v>0.15429914841435599</v>
       </c>
       <c r="L95" s="4">
-        <v>0.115973471956945</v>
+        <v>0.11710808008718999</v>
       </c>
       <c r="M95" s="4">
-        <v>0.11710808008718999</v>
+        <v>0.93959082397753502</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>0.115973471956945</v>
+        <v>0.11710808008718999</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>0.83378734964026691</v>
+        <v>1.8714069923439078</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>0.83378734964026691</v>
+        <v>1.8714069923439078</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>2.9345718473196E-2</v>
+        <v>1.55656598508358E-2</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="16"/>
-        <v>6.5113776862621126E-2</v>
+        <v>2.5746355086564983E-2</v>
       </c>
       <c r="S95" s="2">
         <f t="shared" si="17"/>
-        <v>3.8739454398552531E-2</v>
+        <v>2.382531300187107E-2</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>12</v>
@@ -8945,25 +8344,25 @@
         <v>3</v>
       </c>
       <c r="E96" s="4">
-        <v>2.9497322589158999E-2</v>
+        <v>3.4100100398063597E-2</v>
       </c>
       <c r="F96" s="4">
-        <v>1.55656598508358E-2</v>
+        <v>2.8153752684593199E-2</v>
       </c>
       <c r="G96" s="4">
-        <v>1.7815358787775001E-2</v>
+        <v>1.7410902902483899E-2</v>
       </c>
       <c r="H96" s="4">
-        <v>4.1690176576375901E-2</v>
+        <v>3.04139955341815E-2</v>
       </c>
       <c r="I96" s="4">
-        <v>2.4163257628679199E-2</v>
+        <v>3.7067504525184598E-2</v>
       </c>
       <c r="J96" s="4">
-        <v>0.66040893986482696</v>
+        <v>0.45661885009589398</v>
       </c>
       <c r="K96" s="4">
-        <v>0.15429914841435599</v>
+        <v>0.19618148798065799</v>
       </c>
       <c r="L96" s="4">
         <v>0.11710808008718999</v>
@@ -8977,96 +8376,96 @@
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>1.8714069923439078</v>
+        <v>1.7094992421412769</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>1.8714069923439078</v>
+        <v>1.7094992421412769</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>1.55656598508358E-2</v>
+        <v>1.7410902902483899E-2</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="16"/>
-        <v>2.5746355086564983E-2</v>
+        <v>2.9429251208901358E-2</v>
       </c>
       <c r="S96" s="2">
         <f t="shared" si="17"/>
-        <v>2.382531300187107E-2</v>
+        <v>3.0889282872279433E-2</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="E97" s="4">
-        <v>3.4100100398063597E-2</v>
+        <v>4.5422725379466997E-2</v>
       </c>
       <c r="F97" s="4">
-        <v>2.8153752684593199E-2</v>
+        <v>2.19034897536039E-2</v>
       </c>
       <c r="G97" s="4">
-        <v>1.7410902902483899E-2</v>
+        <v>4.2379855960607497E-2</v>
       </c>
       <c r="H97" s="4">
-        <v>3.04139955341815E-2</v>
+        <v>2.29491398483514E-2</v>
       </c>
       <c r="I97" s="4">
-        <v>3.7067504525184598E-2</v>
+        <v>2.06747725605964E-2</v>
       </c>
       <c r="J97" s="4">
-        <v>0.45661885009589398</v>
+        <v>0.40452430961547398</v>
       </c>
       <c r="K97" s="4">
-        <v>0.19618148798065799</v>
+        <v>0.311172556898129</v>
       </c>
       <c r="L97" s="4">
+        <v>0.15429914841435599</v>
+      </c>
+      <c r="M97" s="4">
         <v>0.11710808008718999</v>
       </c>
-      <c r="M97" s="4">
-        <v>0.93959082397753502</v>
-      </c>
       <c r="N97" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N97:N106" si="18">MIN(J97:M97)</f>
         <v>0.11710808008718999</v>
       </c>
       <c r="O97" s="2">
-        <f t="shared" si="13"/>
-        <v>1.7094992421412769</v>
+        <f t="shared" ref="O97:O106" si="19">SUM(J97:M97)</f>
+        <v>0.98710409501514895</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="14"/>
-        <v>1.7094992421412769</v>
+        <f t="shared" ref="P97:P106" si="20">ABS(J97)+ABS(K97)+ABS(L97)+ABS(M97)</f>
+        <v>0.98710409501514895</v>
       </c>
       <c r="Q97" s="2">
-        <f t="shared" si="15"/>
-        <v>1.7410902902483899E-2</v>
+        <f t="shared" ref="Q97:Q106" si="21">MIN(E97:I97)</f>
+        <v>2.06747725605964E-2</v>
       </c>
       <c r="R97" s="2">
-        <f t="shared" si="16"/>
-        <v>2.9429251208901358E-2</v>
+        <f t="shared" ref="R97:R106" si="22">AVERAGE(E97:I97)</f>
+        <v>3.0665996700525239E-2</v>
       </c>
       <c r="S97" s="2">
-        <f t="shared" si="17"/>
-        <v>3.0889282872279433E-2</v>
+        <f t="shared" ref="S97:S106" si="23">(SUM(E97:I97)-MIN(E97:I97)-MAX(E97:I97))/3</f>
+        <v>2.9077495187520928E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>15</v>
@@ -9075,25 +8474,25 @@
         <v>12</v>
       </c>
       <c r="E98" s="4">
-        <v>4.5422725379466997E-2</v>
+        <v>7.3093124330043793E-2</v>
       </c>
       <c r="F98" s="4">
-        <v>2.19034897536039E-2</v>
+        <v>4.0552259981632199E-2</v>
       </c>
       <c r="G98" s="4">
-        <v>4.2379855960607497E-2</v>
+        <v>1.7707058265805199E-2</v>
       </c>
       <c r="H98" s="4">
-        <v>2.29491398483514E-2</v>
+        <v>1.7673408538103098E-2</v>
       </c>
       <c r="I98" s="4">
-        <v>2.06747725605964E-2</v>
+        <v>2.58108356595039E-2</v>
       </c>
       <c r="J98" s="4">
-        <v>0.40452430961547398</v>
+        <v>0.44339170258481098</v>
       </c>
       <c r="K98" s="4">
-        <v>0.311172556898129</v>
+        <v>0.28867643090825301</v>
       </c>
       <c r="L98" s="4">
         <v>0.15429914841435599</v>
@@ -9102,69 +8501,69 @@
         <v>0.11710808008718999</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" ref="N98:N129" si="18">MIN(J98:M98)</f>
+        <f t="shared" si="18"/>
         <v>0.11710808008718999</v>
       </c>
       <c r="O98" s="2">
-        <f t="shared" ref="O98:O107" si="19">SUM(J98:M98)</f>
-        <v>0.98710409501514895</v>
+        <f t="shared" si="19"/>
+        <v>1.00347536199461</v>
       </c>
       <c r="P98" s="2">
-        <f t="shared" ref="P98:P107" si="20">ABS(J98)+ABS(K98)+ABS(L98)+ABS(M98)</f>
-        <v>0.98710409501514895</v>
+        <f t="shared" si="20"/>
+        <v>1.00347536199461</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" ref="Q98:Q107" si="21">MIN(E98:I98)</f>
-        <v>2.06747725605964E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.7673408538103098E-2</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" ref="R98:R107" si="22">AVERAGE(E98:I98)</f>
-        <v>3.0665996700525239E-2</v>
+        <f t="shared" si="22"/>
+        <v>3.4967337355017634E-2</v>
       </c>
       <c r="S98" s="2">
-        <f t="shared" ref="S98:S107" si="23">(SUM(E98:I98)-MIN(E98:I98)-MAX(E98:I98))/3</f>
-        <v>2.9077495187520928E-2</v>
+        <f t="shared" si="23"/>
+        <v>2.8023384635647099E-2</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E99" s="4">
-        <v>7.3093124330043793E-2</v>
+        <v>3.3462916463613497E-2</v>
       </c>
       <c r="F99" s="4">
-        <v>4.0552259981632199E-2</v>
+        <v>4.2347264885902403E-2</v>
       </c>
       <c r="G99" s="4">
-        <v>1.7707058265805199E-2</v>
+        <v>1.61334718763828E-2</v>
       </c>
       <c r="H99" s="4">
-        <v>1.7673408538103098E-2</v>
+        <v>7.37544304132461E-2</v>
       </c>
       <c r="I99" s="4">
-        <v>2.58108356595039E-2</v>
+        <v>2.92772502452135E-2</v>
       </c>
       <c r="J99" s="4">
-        <v>0.44339170258481098</v>
+        <v>0.45661885009589398</v>
       </c>
       <c r="K99" s="4">
         <v>0.28867643090825301</v>
       </c>
       <c r="L99" s="4">
-        <v>0.15429914841435599</v>
+        <v>0.11710808008718999</v>
       </c>
       <c r="M99" s="4">
-        <v>0.11710808008718999</v>
+        <v>0.77480318868283204</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="18"/>
@@ -9172,23 +8571,23 @@
       </c>
       <c r="O99" s="2">
         <f t="shared" si="19"/>
-        <v>1.00347536199461</v>
+        <v>1.637206549774169</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="20"/>
-        <v>1.00347536199461</v>
+        <v>1.637206549774169</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="21"/>
-        <v>1.7673408538103098E-2</v>
+        <v>1.61334718763828E-2</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="22"/>
-        <v>3.4967337355017634E-2</v>
+        <v>3.8995066776871659E-2</v>
       </c>
       <c r="S99" s="2">
         <f t="shared" si="23"/>
-        <v>2.8023384635647099E-2</v>
+        <v>3.5029143864909788E-2</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
@@ -9196,40 +8595,40 @@
         <v>17</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E100" s="4">
-        <v>3.3462916463613497E-2</v>
+        <v>2.3990146890282601E-2</v>
       </c>
       <c r="F100" s="4">
-        <v>4.2347264885902403E-2</v>
+        <v>2.94840295612812E-2</v>
       </c>
       <c r="G100" s="4">
-        <v>1.61334718763828E-2</v>
+        <v>3.07105404883623E-2</v>
       </c>
       <c r="H100" s="4">
-        <v>7.37544304132461E-2</v>
+        <v>5.8890850991010602E-2</v>
       </c>
       <c r="I100" s="4">
-        <v>2.92772502452135E-2</v>
+        <v>7.4054259061813302E-2</v>
       </c>
       <c r="J100" s="4">
         <v>0.45661885009589398</v>
       </c>
       <c r="K100" s="4">
-        <v>0.28867643090825301</v>
+        <v>0.311172556898129</v>
       </c>
       <c r="L100" s="4">
         <v>0.11710808008718999</v>
       </c>
       <c r="M100" s="4">
-        <v>0.77480318868283204</v>
+        <v>0.61213057637116297</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="18"/>
@@ -9237,23 +8636,23 @@
       </c>
       <c r="O100" s="2">
         <f t="shared" si="19"/>
-        <v>1.637206549774169</v>
+        <v>1.4970300634523759</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="20"/>
-        <v>1.637206549774169</v>
+        <v>1.4970300634523759</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="21"/>
-        <v>1.61334718763828E-2</v>
+        <v>2.3990146890282601E-2</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="22"/>
-        <v>3.8995066776871659E-2</v>
+        <v>4.3425965398550002E-2</v>
       </c>
       <c r="S100" s="2">
         <f t="shared" si="23"/>
-        <v>3.5029143864909788E-2</v>
+        <v>3.9695140346884698E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
@@ -9261,64 +8660,64 @@
         <v>17</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E101" s="4">
-        <v>2.3990146890282601E-2</v>
+        <v>2.6149349138140598E-2</v>
       </c>
       <c r="F101" s="4">
-        <v>2.94840295612812E-2</v>
+        <v>2.7279421687126101E-2</v>
       </c>
       <c r="G101" s="4">
-        <v>3.07105404883623E-2</v>
+        <v>2.6887350603938098E-2</v>
       </c>
       <c r="H101" s="4">
-        <v>5.8890850991010602E-2</v>
+        <v>2.3652265965938502E-2</v>
       </c>
       <c r="I101" s="4">
-        <v>7.4054259061813302E-2</v>
+        <v>2.97150784730911E-2</v>
       </c>
       <c r="J101" s="4">
         <v>0.45661885009589398</v>
       </c>
       <c r="K101" s="4">
-        <v>0.311172556898129</v>
+        <v>0.28867643090825301</v>
       </c>
       <c r="L101" s="4">
-        <v>0.11710808008718999</v>
+        <v>0.11833176042660901</v>
       </c>
       <c r="M101" s="4">
-        <v>0.61213057637116297</v>
+        <v>0.36249339926180402</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="18"/>
-        <v>0.11710808008718999</v>
+        <v>0.11833176042660901</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="19"/>
-        <v>1.4970300634523759</v>
+        <v>1.2261204406925601</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="20"/>
-        <v>1.4970300634523759</v>
+        <v>1.2261204406925601</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="21"/>
-        <v>2.3990146890282601E-2</v>
+        <v>2.3652265965938502E-2</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="22"/>
-        <v>4.3425965398550002E-2</v>
+        <v>2.673669317364688E-2</v>
       </c>
       <c r="S101" s="2">
         <f t="shared" si="23"/>
-        <v>3.9695140346884698E-2</v>
+        <v>2.6772040476401599E-2</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
@@ -9326,40 +8725,40 @@
         <v>17</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E102" s="4">
-        <v>2.6149349138140598E-2</v>
+        <v>6.0091043859720202E-2</v>
       </c>
       <c r="F102" s="4">
-        <v>2.7279421687126101E-2</v>
+        <v>3.15094593167305E-2</v>
       </c>
       <c r="G102" s="4">
-        <v>2.6887350603938098E-2</v>
+        <v>3.2549603432416897E-2</v>
       </c>
       <c r="H102" s="4">
-        <v>2.3652265965938502E-2</v>
+        <v>1.3143276199698401E-2</v>
       </c>
       <c r="I102" s="4">
-        <v>2.97150784730911E-2</v>
+        <v>1.90739044547081E-2</v>
       </c>
       <c r="J102" s="4">
         <v>0.45661885009589398</v>
       </c>
       <c r="K102" s="4">
-        <v>0.28867643090825301</v>
+        <v>0.23618685450556701</v>
       </c>
       <c r="L102" s="4">
         <v>0.11833176042660901</v>
       </c>
       <c r="M102" s="4">
-        <v>0.36249339926180402</v>
+        <v>0.61213057637116297</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="18"/>
@@ -9367,23 +8766,23 @@
       </c>
       <c r="O102" s="2">
         <f t="shared" si="19"/>
-        <v>1.2261204406925601</v>
+        <v>1.4232680413992329</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="20"/>
-        <v>1.2261204406925601</v>
+        <v>1.4232680413992329</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="21"/>
-        <v>2.3652265965938502E-2</v>
+        <v>1.3143276199698401E-2</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="22"/>
-        <v>2.673669317364688E-2</v>
+        <v>3.1273457452654821E-2</v>
       </c>
       <c r="S102" s="2">
         <f t="shared" si="23"/>
-        <v>2.6772040476401599E-2</v>
+        <v>2.771098906795184E-2</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
@@ -9391,40 +8790,40 @@
         <v>17</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E103" s="4">
-        <v>6.0091043859720202E-2</v>
+        <v>3.9092870056629099E-2</v>
       </c>
       <c r="F103" s="4">
-        <v>3.15094593167305E-2</v>
+        <v>3.0028852000832499E-2</v>
       </c>
       <c r="G103" s="4">
-        <v>3.2549603432416897E-2</v>
+        <v>5.2037757039070098E-2</v>
       </c>
       <c r="H103" s="4">
-        <v>1.3143276199698401E-2</v>
+        <v>3.20163042843341E-2</v>
       </c>
       <c r="I103" s="4">
-        <v>1.90739044547081E-2</v>
+        <v>3.0278740823268799E-2</v>
       </c>
       <c r="J103" s="4">
         <v>0.45661885009589398</v>
       </c>
       <c r="K103" s="4">
-        <v>0.23618685450556701</v>
+        <v>0.19618148798065799</v>
       </c>
       <c r="L103" s="4">
         <v>0.11833176042660901</v>
       </c>
       <c r="M103" s="4">
-        <v>0.61213057637116297</v>
+        <v>0.69774607612664197</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="18"/>
@@ -9432,64 +8831,64 @@
       </c>
       <c r="O103" s="2">
         <f t="shared" si="19"/>
-        <v>1.4232680413992329</v>
+        <v>1.4688781746298027</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="20"/>
-        <v>1.4232680413992329</v>
+        <v>1.4688781746298027</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="21"/>
-        <v>1.3143276199698401E-2</v>
+        <v>3.0028852000832499E-2</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="22"/>
-        <v>3.1273457452654821E-2</v>
+        <v>3.6690904840826918E-2</v>
       </c>
       <c r="S103" s="2">
         <f t="shared" si="23"/>
-        <v>2.771098906795184E-2</v>
+        <v>3.3795971721410668E-2</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="E104" s="4">
-        <v>3.9092870056629099E-2</v>
+        <v>2.2918204218149101E-2</v>
       </c>
       <c r="F104" s="4">
-        <v>3.0028852000832499E-2</v>
+        <v>4.5227771401405298E-2</v>
       </c>
       <c r="G104" s="4">
-        <v>5.2037757039070098E-2</v>
+        <v>4.3686135709285701E-2</v>
       </c>
       <c r="H104" s="4">
-        <v>3.20163042843341E-2</v>
+        <v>3.39324636384844E-2</v>
       </c>
       <c r="I104" s="4">
-        <v>3.0278740823268799E-2</v>
+        <v>4.2700046077370601E-2</v>
       </c>
       <c r="J104" s="4">
-        <v>0.45661885009589398</v>
+        <v>0.211239010925698</v>
       </c>
       <c r="K104" s="4">
-        <v>0.19618148798065799</v>
+        <v>0.28867643090825301</v>
       </c>
       <c r="L104" s="4">
+        <v>0.15429914841435599</v>
+      </c>
+      <c r="M104" s="4">
         <v>0.11833176042660901</v>
-      </c>
-      <c r="M104" s="4">
-        <v>0.69774607612664197</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="18"/>
@@ -9497,64 +8896,64 @@
       </c>
       <c r="O104" s="2">
         <f t="shared" si="19"/>
-        <v>1.4688781746298027</v>
+        <v>0.77254635067491595</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="20"/>
-        <v>1.4688781746298027</v>
+        <v>0.77254635067491595</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="21"/>
-        <v>3.0028852000832499E-2</v>
+        <v>2.2918204218149101E-2</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="22"/>
-        <v>3.6690904840826918E-2</v>
+        <v>3.7692924208939022E-2</v>
       </c>
       <c r="S104" s="2">
         <f t="shared" si="23"/>
-        <v>3.3795971721410668E-2</v>
+        <v>4.0106215141713565E-2</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E105" s="4">
-        <v>2.2918204218149101E-2</v>
+        <v>4.3154703080654097E-2</v>
       </c>
       <c r="F105" s="4">
-        <v>4.5227771401405298E-2</v>
+        <v>9.3892820626497203E-2</v>
       </c>
       <c r="G105" s="4">
-        <v>4.3686135709285701E-2</v>
+        <v>4.1706325560808097E-2</v>
       </c>
       <c r="H105" s="4">
-        <v>3.39324636384844E-2</v>
+        <v>2.1404037773609101E-2</v>
       </c>
       <c r="I105" s="4">
-        <v>4.2700046077370601E-2</v>
+        <v>2.1947827190160699E-2</v>
       </c>
       <c r="J105" s="4">
-        <v>0.211239010925698</v>
+        <v>0.66040893986482696</v>
       </c>
       <c r="K105" s="4">
-        <v>0.28867643090825301</v>
+        <v>0.15429914841435599</v>
       </c>
       <c r="L105" s="4">
-        <v>0.15429914841435599</v>
+        <v>0.11833176042660901</v>
       </c>
       <c r="M105" s="4">
-        <v>0.11833176042660901</v>
+        <v>0.69774607612664197</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="18"/>
@@ -9562,64 +8961,64 @@
       </c>
       <c r="O105" s="2">
         <f t="shared" si="19"/>
-        <v>0.77254635067491595</v>
+        <v>1.6307859248324339</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="20"/>
-        <v>0.77254635067491595</v>
+        <v>1.6307859248324339</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="21"/>
-        <v>2.2918204218149101E-2</v>
+        <v>2.1404037773609101E-2</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="22"/>
-        <v>3.7692924208939022E-2</v>
+        <v>4.4421142846345837E-2</v>
       </c>
       <c r="S105" s="2">
         <f t="shared" si="23"/>
-        <v>4.0106215141713565E-2</v>
+        <v>3.5602951943874299E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="E106" s="4">
-        <v>4.3154703080654097E-2</v>
+        <v>4.7325748801231297E-2</v>
       </c>
       <c r="F106" s="4">
-        <v>9.3892820626497203E-2</v>
+        <v>3.7961496710777198E-2</v>
       </c>
       <c r="G106" s="4">
-        <v>4.1706325560808097E-2</v>
+        <v>7.7125458717346093E-2</v>
       </c>
       <c r="H106" s="4">
-        <v>2.1404037773609101E-2</v>
+        <v>2.8064882755279501E-2</v>
       </c>
       <c r="I106" s="4">
-        <v>2.1947827190160699E-2</v>
+        <v>3.53244540095329E-2</v>
       </c>
       <c r="J106" s="4">
-        <v>0.66040893986482696</v>
+        <v>0.40452430961547398</v>
       </c>
       <c r="K106" s="4">
+        <v>0.23618685450556701</v>
+      </c>
+      <c r="L106" s="4">
         <v>0.15429914841435599</v>
       </c>
-      <c r="L106" s="4">
+      <c r="M106" s="4">
         <v>0.11833176042660901</v>
-      </c>
-      <c r="M106" s="4">
-        <v>0.69774607612664197</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="18"/>
@@ -9627,94 +9026,94 @@
       </c>
       <c r="O106" s="2">
         <f t="shared" si="19"/>
-        <v>1.6307859248324339</v>
+        <v>0.91334207296200598</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="20"/>
-        <v>1.6307859248324339</v>
+        <v>0.91334207296200598</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="21"/>
-        <v>2.1404037773609101E-2</v>
+        <v>2.8064882755279501E-2</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="22"/>
-        <v>4.4421142846345837E-2</v>
+        <v>4.51604081988334E-2</v>
       </c>
       <c r="S106" s="2">
         <f t="shared" si="23"/>
-        <v>3.5602951943874299E-2</v>
+        <v>4.0203899840513806E-2</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>10</v>
+      <c r="A107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="E107" s="4">
-        <v>4.7325748801231297E-2</v>
+        <v>4.1218972355127302E-2</v>
       </c>
       <c r="F107" s="4">
-        <v>3.7961496710777198E-2</v>
+        <v>1.2335145175457E-2</v>
       </c>
       <c r="G107" s="4">
-        <v>7.7125458717346093E-2</v>
+        <v>2.55837010592222E-2</v>
       </c>
       <c r="H107" s="4">
-        <v>2.8064882755279501E-2</v>
+        <v>3.0144933685660302E-2</v>
       </c>
       <c r="I107" s="4">
-        <v>3.53244540095329E-2</v>
+        <v>4.5229347348213197E-2</v>
       </c>
       <c r="J107" s="4">
-        <v>0.40452430961547398</v>
+        <v>0</v>
       </c>
       <c r="K107" s="4">
-        <v>0.23618685450556701</v>
+        <v>0</v>
       </c>
       <c r="L107" s="4">
-        <v>0.15429914841435599</v>
+        <v>0</v>
       </c>
       <c r="M107" s="4">
-        <v>0.11833176042660901</v>
+        <v>0</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="18"/>
-        <v>0.11833176042660901</v>
+        <f>MIN(J107:M107)</f>
+        <v>0</v>
       </c>
       <c r="O107" s="2">
-        <f t="shared" si="19"/>
-        <v>0.91334207296200598</v>
+        <f>SUM(J107:M107)</f>
+        <v>0</v>
       </c>
       <c r="P107" s="2">
-        <f t="shared" si="20"/>
-        <v>0.91334207296200598</v>
+        <f>ABS(J107)+ABS(K107)+ABS(L107)+ABS(M107)</f>
+        <v>0</v>
       </c>
       <c r="Q107" s="2">
-        <f t="shared" si="21"/>
-        <v>2.8064882755279501E-2</v>
+        <f>MIN(E107:I107)</f>
+        <v>1.2335145175457E-2</v>
       </c>
       <c r="R107" s="2">
-        <f t="shared" si="22"/>
-        <v>4.51604081988334E-2</v>
+        <f>AVERAGE(E107:I107)</f>
+        <v>3.0902419924736003E-2</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" si="23"/>
-        <v>4.0203899840513806E-2</v>
+        <f>(SUM(E107:I107)-MIN(E107:I107)-MAX(E107:I107))/3</f>
+        <v>3.2315869033336601E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S107" xr:uid="{4E659F58-F19C-4C98-8A04-523CC21949C8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S107">
-      <sortCondition ref="N1:N107"/>
+  <autoFilter ref="A1:S106" xr:uid="{4E659F58-F19C-4C98-8A04-523CC21949C8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S106">
+      <sortCondition ref="N1:N106"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:Q107">
